--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -15,7 +15,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="65H9SI6WnlcsEipcNRiE8dsMiSwoF2kiIhabIMGtQZU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="7ratMlG5UIGw4n+xYH9STVyQA6H46jFE0Ff/1jhGIks="/>
     </ext>
   </extLst>
 </workbook>
@@ -67,23 +67,6 @@
 Nicolas HUC    (2023-05-12 06:38:29)
 @jean-marc.lafarge-ext@apave.com  3 rubriques à élucider (optimisation technique sans doute)
 _Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G111">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwyG20e8
-Jean-Marc LAFARGE    (2023-05-12 06:11:44)
-@nicolas.huc@apave.com 
-Ajout de :
-BTDOC
-RELEVE_BT
-Les JDD ADR et LIE existent déjà
-_Attribuée à Nicolas HUC_
-------
-ID#AAAAwyG20fE
-Nicolas HUC    (2023-05-12 06:40:53)
-Oui en effet. Mais comment pouvons-nous savoir depuis le JDD (MAT, EQU, ...) que des adresses doivent être ajoutées =&gt; Il faudrait en avoir la trace dans l'onglet INFO non ?</t>
       </text>
     </comment>
     <comment authorId="0" ref="D105">
@@ -233,14 +216,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjY/H7Qy5y8h2zhMKWFWykM4fMQjQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhVO9ph4IGNH+bAQb89DttW35lvtw=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="396">
   <si>
     <t>Date</t>
   </si>
@@ -964,16 +947,16 @@
     <t>varchar(255)</t>
   </si>
   <si>
+    <t>ST_HORRES</t>
+  </si>
+  <si>
+    <t>Horaire à respecter</t>
+  </si>
+  <si>
     <t>ID_NUMGAM</t>
   </si>
   <si>
     <t>Identifiant de la gamme de l'opération de maintenance</t>
-  </si>
-  <si>
-    <t>ST_HORRES</t>
-  </si>
-  <si>
-    <t>Horaire à respecter</t>
   </si>
   <si>
     <t>ST_LEVART</t>
@@ -1121,48 +1104,60 @@
     <t>Désignation</t>
   </si>
   <si>
+    <t>RO.ORG*001A*ST_DES</t>
+  </si>
+  <si>
+    <t>RT.EQU*001*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>RO.ACT*001*ID_CODINT</t>
+  </si>
+  <si>
+    <t>RO.IMP*001*ID_CODIMP</t>
+  </si>
+  <si>
+    <t>RT.OPE*001*ID_NUMOPE</t>
+  </si>
+  <si>
+    <t>MP.ECH*001*ID_NUMECH</t>
+  </si>
+  <si>
+    <t>RT.EMP*001*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>MP.LOT*001*ID_NUMLOT</t>
+  </si>
+  <si>
+    <t>RT.MAT*001*ID_NUMMAT</t>
+  </si>
+  <si>
     <t>RO.ORG*001*ID_CODGES</t>
   </si>
   <si>
-    <t>RT.EQU*001*ID_NUMEQU</t>
-  </si>
-  <si>
-    <t>RO.ACT*001*ID_CODINT</t>
-  </si>
-  <si>
-    <t>RO.IMP*001*ID_CODIMP</t>
-  </si>
-  <si>
-    <t>RT.OPE*001*ID_NUMOPE</t>
-  </si>
-  <si>
-    <t>MP.ECH*001*ID_NUMECH</t>
-  </si>
-  <si>
-    <t>RT.EMP*001*ID_NUMEMP</t>
-  </si>
-  <si>
-    <t>MP.LOT*001*ID_NUMLOT</t>
-  </si>
-  <si>
-    <t>RT.MAT*001*ID_NUMMAT</t>
-  </si>
-  <si>
     <t>FA.NSV*001*ID_CODNIVSER</t>
   </si>
   <si>
     <t>FOREIGNKEY</t>
   </si>
   <si>
-    <t>ID_CODSER*GES*ID_CODGES</t>
+    <t>ID_CODSER*SER*ST_DES</t>
+  </si>
+  <si>
+    <t>ID_NUMEQU*EQU*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>CRITICITE</t>
+  </si>
+  <si>
+    <t>TYPENJEU</t>
   </si>
   <si>
     <t>SEQUENCE</t>
   </si>
   <si>
-    <t>SER_ID</t>
-  </si>
-  <si>
     <t>EMP_ID</t>
   </si>
   <si>
@@ -1187,6 +1182,9 @@
     <t>$SEQUENCEID</t>
   </si>
   <si>
+    <t>ORG.TR.BTR.001.CRE.01</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -1238,6 +1236,9 @@
     <t>TNR</t>
   </si>
   <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
     <t>NSV.TR.BTR.001.CRE.01</t>
   </si>
   <si>
@@ -1250,6 +1251,9 @@
     <t>BATIMENT 1</t>
   </si>
   <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
     <t>TR.BTR.001.CRE.02</t>
   </si>
   <si>
@@ -1283,9 +1287,15 @@
     <t>TRAVAIL REALISE SUR MATRICULE</t>
   </si>
   <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
     <t>NSV.TR.BTR.001.CRE.02</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>TR.BTR.001.CRE.03</t>
   </si>
   <si>
@@ -1322,10 +1332,16 @@
     <t>TRAVAIL REALISE SUR MATRICULE ET EQUIPEMENT</t>
   </si>
   <si>
+    <t>CRITICITE03</t>
+  </si>
+  <si>
     <t>NSV.TR.BTR.001.CRE.03</t>
   </si>
   <si>
     <t>BATIMENT 2</t>
+  </si>
+  <si>
+    <t>Pérennité</t>
   </si>
   <si>
     <t>TR.BTR.001.LEC.01</t>
@@ -1457,7 +1473,7 @@
     <numFmt numFmtId="166" formatCode="hh:mm"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1542,6 +1558,11 @@
     <font>
       <b/>
       <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1703,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1809,6 +1830,9 @@
     <xf borderId="5" fillId="10" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="5" fillId="10" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1836,7 +1860,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1853,7 +1877,7 @@
     </xf>
     <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="5" fillId="12" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1871,13 +1895,13 @@
     <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -4726,31 +4750,31 @@
       <c r="A97" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="18" t="s">
         <v>235</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="E98" s="21" t="s">
         <v>27</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="99">
@@ -6028,17 +6052,15 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="13.0"/>
-    <col customWidth="1" min="3" max="3" width="22.88"/>
+    <col customWidth="1" min="3" max="3" width="25.0"/>
     <col customWidth="1" min="4" max="4" width="10.13"/>
     <col customWidth="1" min="5" max="5" width="13.0"/>
     <col customWidth="1" min="6" max="6" width="8.0"/>
@@ -6048,6 +6070,7 @@
     <col customWidth="1" min="10" max="10" width="25.88"/>
     <col customWidth="1" min="11" max="11" width="10.63"/>
     <col customWidth="1" min="12" max="12" width="10.75"/>
+    <col customWidth="1" min="13" max="13" width="19.0"/>
     <col customWidth="1" min="19" max="19" width="26.5"/>
     <col customWidth="1" min="21" max="21" width="20.13"/>
     <col customWidth="1" min="22" max="22" width="12.5"/>
@@ -6430,7 +6453,7 @@
       <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>285</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -6445,13 +6468,13 @@
       <c r="G2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="40" t="s">
         <v>286</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="40" t="s">
         <v>288</v>
       </c>
       <c r="K2" s="38" t="s">
@@ -6460,7 +6483,7 @@
       <c r="L2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="40" t="s">
         <v>289</v>
       </c>
       <c r="N2" s="38"/>
@@ -6468,25 +6491,25 @@
       <c r="P2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="40" t="s">
         <v>290</v>
       </c>
       <c r="R2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="40" t="s">
         <v>291</v>
       </c>
       <c r="T2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="40" t="s">
         <v>293</v>
       </c>
       <c r="X2" s="38" t="s">
@@ -6496,7 +6519,7 @@
         <v>42</v>
       </c>
       <c r="Z2" s="38" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="AA2" s="38" t="s">
         <v>9</v>
@@ -6645,8 +6668,8 @@
       <c r="BW2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="BX2" s="39" t="s">
-        <v>294</v>
+      <c r="BX2" s="40" t="s">
+        <v>295</v>
       </c>
       <c r="BY2" s="38" t="s">
         <v>9</v>
@@ -6747,13 +6770,13 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>296</v>
+      <c r="C3" s="39" t="s">
+        <v>297</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>9</v>
@@ -6767,8 +6790,8 @@
       <c r="G3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>9</v>
+      <c r="H3" s="40" t="s">
+        <v>298</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>9</v>
@@ -6800,8 +6823,8 @@
       <c r="R3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="38" t="s">
-        <v>9</v>
+      <c r="S3" s="40" t="s">
+        <v>291</v>
       </c>
       <c r="T3" s="38" t="s">
         <v>9</v>
@@ -7072,339 +7095,129 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="CZ4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="DA4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="DB4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="DC4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="DD4" s="38" t="s">
-        <v>9</v>
-      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38"/>
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38"/>
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="38"/>
       <c r="D5" s="38" t="s">
         <v>9</v>
       </c>
@@ -7421,7 +7234,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="J5" s="38" t="s">
         <v>9</v>
@@ -7435,9 +7248,7 @@
       <c r="M5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>9</v>
-      </c>
+      <c r="N5" s="38"/>
       <c r="O5" s="38" t="s">
         <v>9</v>
       </c>
@@ -7451,7 +7262,7 @@
         <v>9</v>
       </c>
       <c r="S5" s="38" t="s">
-        <v>9</v>
+        <v>303</v>
       </c>
       <c r="T5" s="38" t="s">
         <v>9</v>
@@ -7472,7 +7283,7 @@
         <v>9</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="AA5" s="38" t="s">
         <v>9</v>
@@ -7481,7 +7292,7 @@
         <v>9</v>
       </c>
       <c r="AC5" s="38" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="38" t="s">
         <v>9</v>
@@ -7580,7 +7391,7 @@
         <v>9</v>
       </c>
       <c r="BJ5" s="38" t="s">
-        <v>303</v>
+        <v>9</v>
       </c>
       <c r="BK5" s="38" t="s">
         <v>9</v>
@@ -7722,2817 +7533,3142 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CZ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="DA6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="DB6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="DC6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="DD6" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="B6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="BK6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD6" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="43">
-        <v>2033.0</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD7" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="S7" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="U7" s="45" t="s">
+      <c r="E8" s="43" t="s">
         <v>310</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="W7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z7" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA7" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="AB7" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC7" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="AE7" s="47">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="AF7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH7" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="AI7" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="AK7" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="AL7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AM7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AN7" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="AO7" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="AP7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AQ7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AR7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AS7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AT7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AU7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AV7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="AW7" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX7" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="AY7" s="47">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AZ7" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="BA7" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="BB7" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="BC7" s="47">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="BD7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BE7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BF7" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="BG7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BH7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="BI7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BJ7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BK7" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BL7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BM7" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BN7" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="BO7" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="BP7" s="47">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="BQ7" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="BR7" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="BS7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BT7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BU7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BV7" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BW7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX7" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="BY7" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="BZ7" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="CA7" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="CB7" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="CC7" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="CD7" s="47">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="CE7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CF7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CG7" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="CH7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CI7" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CJ7" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="CK7" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="CL7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CM7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CN7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CO7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CP7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CQ7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CR7" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="CS7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CT7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CU7" s="51">
-        <v>3.0</v>
-      </c>
-      <c r="CV7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CW7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CY7" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CZ7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="DA7" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DB7" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DC7" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="DD7" s="50" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="43">
-        <v>2033.0</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>306</v>
       </c>
       <c r="F8" s="19">
         <v>1.0</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>308</v>
+      <c r="G8" s="45" t="s">
+        <v>313</v>
       </c>
       <c r="H8" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="M8" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>306</v>
+        <v>318</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>310</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="S8" s="45" t="s">
-        <v>333</v>
+        <v>319</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>320</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="U8" s="45" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>315</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z8" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA8" s="42">
+        <v>318</v>
+      </c>
+      <c r="Z8" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA8" s="43">
         <v>1.0</v>
       </c>
-      <c r="AB8" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC8" s="42" t="s">
+      <c r="AB8" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AD8" s="46">
-        <v>44197.0</v>
-      </c>
-      <c r="AE8" s="47">
-        <v>0.3993055555555556</v>
+      <c r="AD8" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="AE8" s="48">
+        <v>0.3541666666666667</v>
       </c>
       <c r="AF8" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH8" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="AI8" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AK8" s="19">
         <v>2.0</v>
       </c>
-      <c r="AG8" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH8" s="46">
-        <v>44206.0</v>
-      </c>
-      <c r="AI8" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>3.0</v>
-      </c>
       <c r="AL8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AM8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AN8" s="19">
+        <v>500.0</v>
+      </c>
+      <c r="AO8" s="19">
+        <v>500.0</v>
+      </c>
+      <c r="AP8" s="19">
         <v>1000.0</v>
       </c>
-      <c r="AO8" s="19">
+      <c r="AQ8" s="19">
         <v>1000.0</v>
       </c>
-      <c r="AP8" s="19">
-        <v>2000.0</v>
-      </c>
-      <c r="AQ8" s="19">
-        <v>2000.0</v>
-      </c>
       <c r="AR8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AS8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AT8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AU8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX8" s="46">
-        <v>44206.0</v>
-      </c>
-      <c r="AY8" s="47">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="AZ8" s="46">
-        <v>44206.0</v>
-      </c>
-      <c r="BA8" s="47">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="BB8" s="46">
-        <v>44206.0</v>
-      </c>
-      <c r="BC8" s="47">
-        <v>0.40625</v>
-      </c>
-      <c r="BD8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BE8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BF8" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="BG8" s="49" t="s">
-        <v>319</v>
+        <v>325</v>
+      </c>
+      <c r="AX8" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="AY8" s="48">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AZ8" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="BA8" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="BB8" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="BC8" s="48">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="BD8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BF8" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG8" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BH8" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="BI8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BJ8" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="BI8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ8" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BL8" s="49" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="BL8" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BM8" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BN8" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="BO8" s="46">
-        <v>44206.0</v>
-      </c>
-      <c r="BP8" s="47">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="BQ8" s="46">
-        <v>44206.0</v>
-      </c>
-      <c r="BR8" s="47">
-        <v>0.4791666666666667</v>
+        <v>327</v>
+      </c>
+      <c r="BN8" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO8" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="BP8" s="48">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BQ8" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="BR8" s="48">
+        <v>0.375</v>
       </c>
       <c r="BS8" s="19">
         <v>1.0</v>
       </c>
-      <c r="BT8" s="19">
-        <v>2.0</v>
+      <c r="BT8" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="BU8" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="BW8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX8" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="BY8" s="46">
-        <v>44197.0</v>
-      </c>
-      <c r="BZ8" s="47">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="CA8" s="46">
+        <v>327</v>
+      </c>
+      <c r="BW8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BX8" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="BY8" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="BZ8" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="CA8" s="47">
         <v>43832.0</v>
       </c>
-      <c r="CB8" s="47">
+      <c r="CB8" s="48">
         <v>0.375</v>
       </c>
-      <c r="CC8" s="46">
+      <c r="CC8" s="47">
         <v>43832.0</v>
       </c>
-      <c r="CD8" s="47">
+      <c r="CD8" s="48">
         <v>0.7916666666666666</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CL8" s="49" t="s">
-        <v>319</v>
+        <v>333</v>
+      </c>
+      <c r="CL8" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="CM8" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CN8" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="CN8" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="CO8" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CP8" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="CP8" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="CR8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CS8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CT8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CU8" s="51">
-        <v>4.0</v>
-      </c>
-      <c r="CV8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CW8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX8" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CY8" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="CS8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CT8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CU8" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="CV8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CW8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX8" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CY8" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="CZ8" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="DA8" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DB8" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DC8" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="DD8" s="50" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="DA8" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB8" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC8" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="DD8" s="51" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="43">
-        <v>2033.0</v>
+      <c r="A9" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>306</v>
+        <v>312</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>310</v>
       </c>
       <c r="F9" s="19">
         <v>1.0</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>308</v>
+      <c r="G9" s="45" t="s">
+        <v>313</v>
       </c>
       <c r="H9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S9" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="U9" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="W9" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="X9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z9" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="AA9" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="AB9" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="AC9" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD9" s="47">
+        <v>44197.0</v>
+      </c>
+      <c r="AE9" s="48">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="AF9" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="AG9" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="AH9" s="47">
+        <v>44206.0</v>
+      </c>
+      <c r="AI9" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ9" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="AL9" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AM9" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AN9" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AO9" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AP9" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AQ9" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AR9" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AS9" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AT9" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AU9" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AV9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="AW9" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="S9" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="U9" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z9" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA9" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="AB9" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC9" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD9" s="46">
-        <v>44562.0</v>
-      </c>
-      <c r="AE9" s="47">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="AF9" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH9" s="46">
-        <v>44592.0</v>
-      </c>
-      <c r="AI9" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ9" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="AK9" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="AL9" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="AM9" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="AN9" s="19">
-        <v>1500.0</v>
-      </c>
-      <c r="AO9" s="19">
-        <v>1500.0</v>
-      </c>
-      <c r="AP9" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="AQ9" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="AR9" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="AS9" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="AT9" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="AU9" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="AW9" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="AX9" s="46">
-        <v>44592.0</v>
-      </c>
-      <c r="AY9" s="47">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="AZ9" s="46">
-        <v>44592.0</v>
-      </c>
-      <c r="BA9" s="47">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="BB9" s="46">
-        <v>44592.0</v>
-      </c>
-      <c r="BC9" s="47">
-        <v>0.5729166666666666</v>
-      </c>
-      <c r="BD9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BE9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BF9" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="BG9" s="49" t="s">
-        <v>319</v>
+      <c r="AX9" s="47">
+        <v>44206.0</v>
+      </c>
+      <c r="AY9" s="48">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="AZ9" s="47">
+        <v>44206.0</v>
+      </c>
+      <c r="BA9" s="48">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="BB9" s="47">
+        <v>44206.0</v>
+      </c>
+      <c r="BC9" s="48">
+        <v>0.40625</v>
+      </c>
+      <c r="BD9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BF9" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG9" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BH9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="BI9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BJ9" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="BI9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ9" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BL9" s="49" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="BL9" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BM9" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BN9" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="BO9" s="46">
-        <v>44592.0</v>
-      </c>
-      <c r="BP9" s="47">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="BQ9" s="46">
-        <v>44592.0</v>
-      </c>
-      <c r="BR9" s="47">
-        <v>0.6666666666666666</v>
+        <v>327</v>
+      </c>
+      <c r="BN9" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO9" s="47">
+        <v>44206.0</v>
+      </c>
+      <c r="BP9" s="48">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="BQ9" s="47">
+        <v>44206.0</v>
+      </c>
+      <c r="BR9" s="48">
+        <v>0.4791666666666667</v>
       </c>
       <c r="BS9" s="19">
         <v>1.0</v>
       </c>
-      <c r="BT9" s="19">
-        <v>3.0</v>
+      <c r="BT9" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="BU9" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BV9" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BW9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX9" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="BY9" s="46">
-        <v>44562.0</v>
-      </c>
-      <c r="BZ9" s="47">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="CA9" s="46">
+        <v>331</v>
+      </c>
+      <c r="BW9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BX9" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="BY9" s="47">
+        <v>44197.0</v>
+      </c>
+      <c r="BZ9" s="48">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="CA9" s="47">
         <v>43832.0</v>
       </c>
-      <c r="CB9" s="47">
+      <c r="CB9" s="48">
         <v>0.375</v>
       </c>
-      <c r="CC9" s="46">
+      <c r="CC9" s="47">
         <v>43832.0</v>
       </c>
-      <c r="CD9" s="47">
+      <c r="CD9" s="48">
         <v>0.7916666666666666</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="CJ9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CK9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CL9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CM9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CN9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CO9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CP9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CQ9" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="CR9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CS9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CT9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CU9" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="CV9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CW9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CY9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CZ9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="DA9" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB9" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC9" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="CK9" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="CL9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CM9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CN9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CO9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CP9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CQ9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CR9" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="CS9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CT9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CU9" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="CV9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CW9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CY9" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CZ9" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="DA9" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DB9" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DC9" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="DD9" s="50" t="s">
-        <v>321</v>
+      <c r="DD9" s="51" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="B10" s="52">
-        <v>1000.0</v>
-      </c>
-      <c r="C10" s="43">
-        <v>2033.0</v>
+      <c r="A10" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E10" s="42">
-        <v>1000.0</v>
+        <v>312</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>310</v>
       </c>
       <c r="F10" s="19">
         <v>1.0</v>
       </c>
-      <c r="G10" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S10" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="T10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="U10" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="W10" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="X10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z10" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="AA10" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="AB10" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="N10" s="44">
-        <v>1000.0</v>
-      </c>
-      <c r="O10" s="44">
-        <v>2000.0</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="S10" s="45" t="s">
+      <c r="AC10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="47">
+        <v>44562.0</v>
+      </c>
+      <c r="AE10" s="48">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AF10" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="AG10" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="T10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="U10" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="V10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="W10" s="45" t="s">
+      <c r="AH10" s="47">
+        <v>44592.0</v>
+      </c>
+      <c r="AI10" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ10" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="AK10" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AL10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="AM10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="AN10" s="19">
+        <v>1500.0</v>
+      </c>
+      <c r="AO10" s="19">
+        <v>1500.0</v>
+      </c>
+      <c r="AP10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="AQ10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="AR10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="AS10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="AT10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="AU10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="AV10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="AW10" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="X10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z10" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA10" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="AB10" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC10" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="46">
-        <v>44927.0</v>
-      </c>
-      <c r="AE10" s="47">
-        <v>0.4895833333333333</v>
-      </c>
-      <c r="AF10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="AG10" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH10" s="46">
-        <v>44958.0</v>
-      </c>
-      <c r="AI10" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="AK10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="AL10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="AM10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="AN10" s="19">
-        <v>2000.0</v>
-      </c>
-      <c r="AO10" s="19">
-        <v>2000.0</v>
-      </c>
-      <c r="AP10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="AQ10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="AR10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="AS10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="AT10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="AU10" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="AV10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="AW10" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="AX10" s="46">
-        <v>44958.0</v>
-      </c>
-      <c r="AY10" s="47">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="AZ10" s="46">
-        <v>44958.0</v>
-      </c>
-      <c r="BA10" s="47">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="BB10" s="46">
-        <v>44958.0</v>
-      </c>
-      <c r="BC10" s="47">
-        <v>0.6145833333333334</v>
-      </c>
-      <c r="BD10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BE10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BF10" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="BG10" s="49" t="s">
-        <v>319</v>
+      <c r="AX10" s="47">
+        <v>44592.0</v>
+      </c>
+      <c r="AY10" s="48">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="AZ10" s="47">
+        <v>44592.0</v>
+      </c>
+      <c r="BA10" s="48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="BB10" s="47">
+        <v>44592.0</v>
+      </c>
+      <c r="BC10" s="48">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="BD10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BF10" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG10" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BH10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="BI10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BJ10" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="BI10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ10" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BL10" s="49" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="BL10" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BM10" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BN10" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="BO10" s="46">
-        <v>44958.0</v>
-      </c>
-      <c r="BP10" s="47">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="BQ10" s="46">
-        <v>44958.0</v>
-      </c>
-      <c r="BR10" s="47">
-        <v>0.7708333333333334</v>
+        <v>327</v>
+      </c>
+      <c r="BN10" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO10" s="47">
+        <v>44592.0</v>
+      </c>
+      <c r="BP10" s="48">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BQ10" s="47">
+        <v>44592.0</v>
+      </c>
+      <c r="BR10" s="48">
+        <v>0.6666666666666666</v>
       </c>
       <c r="BS10" s="19">
         <v>1.0</v>
       </c>
-      <c r="BT10" s="19">
-        <v>1.0</v>
+      <c r="BT10" s="19" t="s">
+        <v>361</v>
       </c>
       <c r="BU10" s="19">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="BV10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="BW10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX10" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="BW10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BX10" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="BY10" s="47">
+        <v>44562.0</v>
+      </c>
+      <c r="BZ10" s="48">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="CA10" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="CB10" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="CC10" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="CD10" s="48">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="CE10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CF10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CG10" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="CH10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CI10" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="CJ10" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="CK10" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="BY10" s="46">
-        <v>44927.0</v>
-      </c>
-      <c r="BZ10" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="CA10" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="CB10" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="CC10" s="46">
-        <v>43832.0</v>
-      </c>
-      <c r="CD10" s="47">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="CE10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CF10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CG10" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="CH10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CI10" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="CJ10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CK10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CL10" s="49" t="s">
-        <v>319</v>
+      <c r="CL10" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="CM10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CN10" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="CN10" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="CO10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CP10" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="CP10" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="CR10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CS10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CT10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CU10" s="51">
-        <v>3.0</v>
-      </c>
-      <c r="CV10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CW10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX10" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CY10" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="CS10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CT10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CU10" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="CV10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CW10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX10" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CY10" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="CZ10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="DA10" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DB10" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DC10" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="DD10" s="50" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="DA10" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB10" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC10" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="DD10" s="51" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="52">
-        <v>1001.0</v>
-      </c>
-      <c r="C11" s="43">
-        <v>2033.0</v>
+      <c r="A11" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="53">
+        <v>1000.0</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11" s="42">
-        <v>1001.0</v>
+        <v>312</v>
+      </c>
+      <c r="E11" s="43">
+        <v>1000.0</v>
       </c>
       <c r="F11" s="19">
         <v>1.0</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="I11" s="45" t="s">
+      <c r="G11" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="I11" s="46" t="s">
         <v>367</v>
       </c>
+      <c r="J11" s="46" t="s">
+        <v>368</v>
+      </c>
       <c r="K11" s="19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="N11" s="44">
-        <v>1001.0</v>
-      </c>
-      <c r="O11" s="44">
-        <v>2001.0</v>
+        <v>318</v>
+      </c>
+      <c r="N11" s="45">
+        <v>1000.0</v>
+      </c>
+      <c r="O11" s="45">
+        <v>2000.0</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="S11" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="S11" s="46" t="s">
         <v>370</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="U11" s="45" t="s">
-        <v>366</v>
+        <v>318</v>
+      </c>
+      <c r="U11" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="W11" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="W11" s="46" t="s">
         <v>371</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z11" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z11" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="AA11" s="42">
+      <c r="AA11" s="43">
         <v>1.0</v>
       </c>
-      <c r="AB11" s="45" t="s">
+      <c r="AB11" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="AC11" s="42" t="s">
+      <c r="AC11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AD11" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="AE11" s="47">
-        <v>0.5347222222222222</v>
+      <c r="AD11" s="47">
+        <v>44927.0</v>
+      </c>
+      <c r="AE11" s="48">
+        <v>0.4895833333333333</v>
       </c>
       <c r="AF11" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="AH11" s="47">
+        <v>44958.0</v>
+      </c>
+      <c r="AI11" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ11" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AK11" s="19">
         <v>5.0</v>
       </c>
-      <c r="AG11" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH11" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="AI11" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ11" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="AK11" s="19">
-        <v>6.0</v>
-      </c>
       <c r="AL11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AM11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AN11" s="19">
-        <v>2500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AO11" s="19">
-        <v>2500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AP11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AQ11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AR11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AS11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AT11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AU11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="AX11" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="AY11" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="AZ11" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="BA11" s="47">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="BB11" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="BC11" s="47">
-        <v>0.40625</v>
-      </c>
-      <c r="BD11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BE11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BF11" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="BG11" s="49" t="s">
-        <v>319</v>
+        <v>360</v>
+      </c>
+      <c r="AX11" s="47">
+        <v>44958.0</v>
+      </c>
+      <c r="AY11" s="48">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="AZ11" s="47">
+        <v>44958.0</v>
+      </c>
+      <c r="BA11" s="48">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="BB11" s="47">
+        <v>44958.0</v>
+      </c>
+      <c r="BC11" s="48">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="BD11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BF11" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG11" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BH11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="BI11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BJ11" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="BI11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ11" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BL11" s="49" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="BL11" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BN11" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="BO11" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="BP11" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="BQ11" s="46">
-        <v>43831.0</v>
-      </c>
-      <c r="BR11" s="47">
-        <v>0.5833333333333334</v>
+        <v>327</v>
+      </c>
+      <c r="BN11" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO11" s="47">
+        <v>44958.0</v>
+      </c>
+      <c r="BP11" s="48">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="BQ11" s="47">
+        <v>44958.0</v>
+      </c>
+      <c r="BR11" s="48">
+        <v>0.7708333333333334</v>
       </c>
       <c r="BS11" s="19">
         <v>1.0</v>
       </c>
-      <c r="BT11" s="19">
+      <c r="BT11" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="BU11" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="BV11" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BX11" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="BY11" s="47">
+        <v>44927.0</v>
+      </c>
+      <c r="BZ11" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="CA11" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="CB11" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="CC11" s="47">
+        <v>43832.0</v>
+      </c>
+      <c r="CD11" s="48">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="CE11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CF11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CG11" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="CH11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CI11" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="CJ11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CK11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CL11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CM11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CN11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CO11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CP11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CQ11" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="CR11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CS11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CT11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CU11" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="CV11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CW11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CY11" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CZ11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="DA11" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB11" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC11" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="DD11" s="51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="53">
+        <v>1001.0</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="43">
+        <v>1001.0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="N12" s="45">
+        <v>1001.0</v>
+      </c>
+      <c r="O12" s="45">
+        <v>2001.0</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S12" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="U12" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="W12" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z12" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA12" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="AB12" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC12" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="AE12" s="48">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="AF12" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH12" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="AI12" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ12" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="AK12" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="AL12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AM12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AN12" s="19">
+        <v>2500.0</v>
+      </c>
+      <c r="AO12" s="19">
+        <v>2500.0</v>
+      </c>
+      <c r="AP12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AQ12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AR12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AS12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AT12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AU12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AV12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="AW12" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX12" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="AY12" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="AZ12" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="BA12" s="48">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="BB12" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="BC12" s="48">
+        <v>0.40625</v>
+      </c>
+      <c r="BD12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BF12" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="BI12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK12" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM12" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="BN12" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO12" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="BP12" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="BQ12" s="47">
+        <v>43831.0</v>
+      </c>
+      <c r="BR12" s="48">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="BS12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BT12" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="BU12" s="19">
         <v>3.0</v>
       </c>
-      <c r="BU11" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="BV11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="BW11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="BX11" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="BY11" s="46">
+      <c r="BV12" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="BX12" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="BY12" s="47">
         <v>43831.0</v>
       </c>
-      <c r="BZ11" s="47">
+      <c r="BZ12" s="48">
         <v>0.5416666666666666</v>
       </c>
-      <c r="CA11" s="46">
+      <c r="CA12" s="47">
         <v>43832.0</v>
       </c>
-      <c r="CB11" s="47">
+      <c r="CB12" s="48">
         <v>0.375</v>
       </c>
-      <c r="CC11" s="46">
+      <c r="CC12" s="47">
         <v>43832.0</v>
       </c>
-      <c r="CD11" s="47">
+      <c r="CD12" s="48">
         <v>0.7916666666666666</v>
       </c>
-      <c r="CE11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CF11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CG11" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="CH11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CI11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CJ11" s="19" t="s">
+      <c r="CE12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CF12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CG12" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="CH12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CI12" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="CJ12" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="CK12" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="CL12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CM12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CN12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CO12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CP12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CQ12" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="CR12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="CS12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CT12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CU12" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="CV12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CW12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CY12" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="CZ12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="DA12" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB12" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC12" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="CK11" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="CL11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CM11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CN11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CO11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CP11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CQ11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="CR11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CS11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CT11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CU11" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="CV11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CW11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CY11" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="CZ11" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="DA11" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DB11" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="DC11" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="DD11" s="50" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="B12" s="52">
+      <c r="DD12" s="51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="53">
         <v>1002.0</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
-      <c r="BB12" s="53"/>
-      <c r="BC12" s="53"/>
-      <c r="BD12" s="53"/>
-      <c r="BE12" s="53"/>
-      <c r="BF12" s="53"/>
-      <c r="BG12" s="53"/>
-      <c r="BH12" s="53"/>
-      <c r="BI12" s="53"/>
-      <c r="BJ12" s="53"/>
-      <c r="BK12" s="53"/>
-      <c r="BL12" s="53"/>
-      <c r="BM12" s="53"/>
-      <c r="BN12" s="53"/>
-      <c r="BO12" s="53"/>
-      <c r="BP12" s="53"/>
-      <c r="BQ12" s="53"/>
-      <c r="BR12" s="53"/>
-      <c r="BS12" s="53"/>
-      <c r="BT12" s="53"/>
-      <c r="BU12" s="53"/>
-      <c r="BV12" s="53"/>
-      <c r="BW12" s="53"/>
-      <c r="BX12" s="53"/>
-      <c r="BY12" s="53"/>
-      <c r="BZ12" s="53"/>
-      <c r="CA12" s="53"/>
-      <c r="CB12" s="53"/>
-      <c r="CC12" s="53"/>
-      <c r="CD12" s="53"/>
-      <c r="CE12" s="53"/>
-      <c r="CF12" s="53"/>
-      <c r="CG12" s="53"/>
-      <c r="CH12" s="53"/>
-      <c r="CI12" s="53"/>
-      <c r="CJ12" s="53"/>
-      <c r="CK12" s="53"/>
-      <c r="CL12" s="53"/>
-      <c r="CM12" s="53"/>
-      <c r="CN12" s="53"/>
-      <c r="CO12" s="53"/>
-      <c r="CP12" s="53"/>
-      <c r="CQ12" s="53"/>
-      <c r="CR12" s="53"/>
-      <c r="CS12" s="53"/>
-      <c r="CT12" s="53"/>
-      <c r="CU12" s="53"/>
-      <c r="CV12" s="53"/>
-      <c r="CW12" s="53"/>
-      <c r="CX12" s="53"/>
-      <c r="CY12" s="53"/>
-      <c r="CZ12" s="53"/>
-      <c r="DA12" s="53"/>
-      <c r="DB12" s="53"/>
-      <c r="DC12" s="53"/>
-      <c r="DD12" s="53"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="B13" s="52">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="54"/>
+      <c r="BM13" s="54"/>
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
+      <c r="BP13" s="54"/>
+      <c r="BQ13" s="54"/>
+      <c r="BR13" s="54"/>
+      <c r="BS13" s="54"/>
+      <c r="BT13" s="54"/>
+      <c r="BU13" s="54"/>
+      <c r="BV13" s="54"/>
+      <c r="BW13" s="54"/>
+      <c r="BX13" s="54"/>
+      <c r="BY13" s="54"/>
+      <c r="BZ13" s="54"/>
+      <c r="CA13" s="54"/>
+      <c r="CB13" s="54"/>
+      <c r="CC13" s="54"/>
+      <c r="CD13" s="54"/>
+      <c r="CE13" s="54"/>
+      <c r="CF13" s="54"/>
+      <c r="CG13" s="54"/>
+      <c r="CH13" s="54"/>
+      <c r="CI13" s="54"/>
+      <c r="CJ13" s="54"/>
+      <c r="CK13" s="54"/>
+      <c r="CL13" s="54"/>
+      <c r="CM13" s="54"/>
+      <c r="CN13" s="54"/>
+      <c r="CO13" s="54"/>
+      <c r="CP13" s="54"/>
+      <c r="CQ13" s="54"/>
+      <c r="CR13" s="54"/>
+      <c r="CS13" s="54"/>
+      <c r="CT13" s="54"/>
+      <c r="CU13" s="54"/>
+      <c r="CV13" s="54"/>
+      <c r="CW13" s="54"/>
+      <c r="CX13" s="54"/>
+      <c r="CY13" s="54"/>
+      <c r="CZ13" s="54"/>
+      <c r="DA13" s="54"/>
+      <c r="DB13" s="54"/>
+      <c r="DC13" s="54"/>
+      <c r="DD13" s="54"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="53">
         <v>1003.0</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-      <c r="BF13" s="53"/>
-      <c r="BG13" s="53"/>
-      <c r="BH13" s="53"/>
-      <c r="BI13" s="53"/>
-      <c r="BJ13" s="53"/>
-      <c r="BK13" s="53"/>
-      <c r="BL13" s="53"/>
-      <c r="BM13" s="53"/>
-      <c r="BN13" s="53"/>
-      <c r="BO13" s="53"/>
-      <c r="BP13" s="53"/>
-      <c r="BQ13" s="53"/>
-      <c r="BR13" s="53"/>
-      <c r="BS13" s="53"/>
-      <c r="BT13" s="53"/>
-      <c r="BU13" s="53"/>
-      <c r="BV13" s="53"/>
-      <c r="BW13" s="53"/>
-      <c r="BX13" s="53"/>
-      <c r="BY13" s="53"/>
-      <c r="BZ13" s="53"/>
-      <c r="CA13" s="53"/>
-      <c r="CB13" s="53"/>
-      <c r="CC13" s="53"/>
-      <c r="CD13" s="53"/>
-      <c r="CE13" s="53"/>
-      <c r="CF13" s="53"/>
-      <c r="CG13" s="53"/>
-      <c r="CH13" s="53"/>
-      <c r="CI13" s="53"/>
-      <c r="CJ13" s="53"/>
-      <c r="CK13" s="53"/>
-      <c r="CL13" s="53"/>
-      <c r="CM13" s="53"/>
-      <c r="CN13" s="53"/>
-      <c r="CO13" s="53"/>
-      <c r="CP13" s="53"/>
-      <c r="CQ13" s="53"/>
-      <c r="CR13" s="53"/>
-      <c r="CS13" s="53"/>
-      <c r="CT13" s="53"/>
-      <c r="CU13" s="53"/>
-      <c r="CV13" s="53"/>
-      <c r="CW13" s="53"/>
-      <c r="CX13" s="53"/>
-      <c r="CY13" s="53"/>
-      <c r="CZ13" s="53"/>
-      <c r="DA13" s="53"/>
-      <c r="DB13" s="53"/>
-      <c r="DC13" s="53"/>
-      <c r="DD13" s="53"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="54"/>
+      <c r="BA14" s="54"/>
+      <c r="BB14" s="54"/>
+      <c r="BC14" s="54"/>
+      <c r="BD14" s="54"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="54"/>
+      <c r="BG14" s="54"/>
+      <c r="BH14" s="54"/>
+      <c r="BI14" s="54"/>
+      <c r="BJ14" s="54"/>
+      <c r="BK14" s="54"/>
+      <c r="BL14" s="54"/>
+      <c r="BM14" s="54"/>
+      <c r="BN14" s="54"/>
+      <c r="BO14" s="54"/>
+      <c r="BP14" s="54"/>
+      <c r="BQ14" s="54"/>
+      <c r="BR14" s="54"/>
+      <c r="BS14" s="54"/>
+      <c r="BT14" s="54"/>
+      <c r="BU14" s="54"/>
+      <c r="BV14" s="54"/>
+      <c r="BW14" s="54"/>
+      <c r="BX14" s="54"/>
+      <c r="BY14" s="54"/>
+      <c r="BZ14" s="54"/>
+      <c r="CA14" s="54"/>
+      <c r="CB14" s="54"/>
+      <c r="CC14" s="54"/>
+      <c r="CD14" s="54"/>
+      <c r="CE14" s="54"/>
+      <c r="CF14" s="54"/>
+      <c r="CG14" s="54"/>
+      <c r="CH14" s="54"/>
+      <c r="CI14" s="54"/>
+      <c r="CJ14" s="54"/>
+      <c r="CK14" s="54"/>
+      <c r="CL14" s="54"/>
+      <c r="CM14" s="54"/>
+      <c r="CN14" s="54"/>
+      <c r="CO14" s="54"/>
+      <c r="CP14" s="54"/>
+      <c r="CQ14" s="54"/>
+      <c r="CR14" s="54"/>
+      <c r="CS14" s="54"/>
+      <c r="CT14" s="54"/>
+      <c r="CU14" s="54"/>
+      <c r="CV14" s="54"/>
+      <c r="CW14" s="54"/>
+      <c r="CX14" s="54"/>
+      <c r="CY14" s="54"/>
+      <c r="CZ14" s="54"/>
+      <c r="DA14" s="54"/>
+      <c r="DB14" s="54"/>
+      <c r="DC14" s="54"/>
+      <c r="DD14" s="54"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="54"/>
+      <c r="A63" s="55"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="54"/>
+      <c r="A64" s="55"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="54"/>
+      <c r="A65" s="55"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="54"/>
+      <c r="A66" s="55"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="54"/>
+      <c r="A67" s="55"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="54"/>
+      <c r="A77" s="55"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="54"/>
+      <c r="A78" s="55"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="54"/>
+      <c r="A79" s="55"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="54"/>
+      <c r="A80" s="55"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="54"/>
+      <c r="A81" s="55"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="54"/>
+      <c r="A82" s="55"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="54"/>
+      <c r="A83" s="55"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="54"/>
+      <c r="A84" s="55"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="54"/>
+      <c r="A85" s="55"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="54"/>
+      <c r="A87" s="55"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="54"/>
+      <c r="A88" s="55"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="54"/>
+      <c r="A89" s="55"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="54"/>
+      <c r="A90" s="55"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="54"/>
+      <c r="A91" s="55"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="54"/>
+      <c r="A92" s="55"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="54"/>
+      <c r="A93" s="55"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="54"/>
+      <c r="A94" s="55"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="54"/>
+      <c r="A95" s="55"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="54"/>
+      <c r="A96" s="55"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="54"/>
+      <c r="A97" s="55"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="54"/>
+      <c r="A98" s="55"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="54"/>
+      <c r="A99" s="55"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="54"/>
+      <c r="A100" s="55"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="54"/>
+      <c r="A101" s="55"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="54"/>
+      <c r="A103" s="55"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="54"/>
+      <c r="A104" s="55"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="54"/>
+      <c r="A105" s="55"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="54"/>
+      <c r="A106" s="55"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="54"/>
+      <c r="A107" s="55"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="54"/>
+      <c r="A108" s="55"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="54"/>
+      <c r="A109" s="55"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="54"/>
+      <c r="A110" s="55"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="54"/>
+      <c r="A111" s="55"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="54"/>
+      <c r="A112" s="55"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="54"/>
+      <c r="A113" s="55"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="54"/>
+      <c r="A114" s="55"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="54"/>
+      <c r="A115" s="55"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="54"/>
+      <c r="A116" s="55"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="54"/>
+      <c r="A117" s="55"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="54"/>
+      <c r="A118" s="55"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="54"/>
+      <c r="A119" s="55"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="54"/>
+      <c r="A120" s="55"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="54"/>
+      <c r="A121" s="55"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="54"/>
+      <c r="A122" s="55"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="54"/>
+      <c r="A123" s="55"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="54"/>
+      <c r="A124" s="55"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="54"/>
+      <c r="A125" s="55"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="54"/>
+      <c r="A126" s="55"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="54"/>
+      <c r="A127" s="55"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="54"/>
+      <c r="A128" s="55"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="54"/>
+      <c r="A129" s="55"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="54"/>
+      <c r="A130" s="55"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="54"/>
+      <c r="A131" s="55"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="54"/>
+      <c r="A132" s="55"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="54"/>
+      <c r="A133" s="55"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="54"/>
+      <c r="A134" s="55"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="54"/>
+      <c r="A135" s="55"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="54"/>
+      <c r="A136" s="55"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="54"/>
+      <c r="A137" s="55"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="54"/>
+      <c r="A138" s="55"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="54"/>
+      <c r="A139" s="55"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="54"/>
+      <c r="A140" s="55"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="54"/>
+      <c r="A141" s="55"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="54"/>
+      <c r="A142" s="55"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="54"/>
+      <c r="A143" s="55"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="54"/>
+      <c r="A144" s="55"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="54"/>
+      <c r="A145" s="55"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="54"/>
+      <c r="A146" s="55"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="54"/>
+      <c r="A147" s="55"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="54"/>
+      <c r="A148" s="55"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="54"/>
+      <c r="A149" s="55"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="54"/>
+      <c r="A150" s="55"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="54"/>
+      <c r="A151" s="55"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="54"/>
+      <c r="A152" s="55"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="54"/>
+      <c r="A153" s="55"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="54"/>
+      <c r="A154" s="55"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="54"/>
+      <c r="A155" s="55"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="54"/>
+      <c r="A156" s="55"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="54"/>
+      <c r="A157" s="55"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="54"/>
+      <c r="A158" s="55"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="54"/>
+      <c r="A159" s="55"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="54"/>
+      <c r="A160" s="55"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="54"/>
+      <c r="A161" s="55"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="54"/>
+      <c r="A162" s="55"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="54"/>
+      <c r="A163" s="55"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="54"/>
+      <c r="A164" s="55"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="54"/>
+      <c r="A165" s="55"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="54"/>
+      <c r="A166" s="55"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="54"/>
+      <c r="A167" s="55"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="54"/>
+      <c r="A168" s="55"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="54"/>
+      <c r="A169" s="55"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="54"/>
+      <c r="A170" s="55"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="54"/>
+      <c r="A171" s="55"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="54"/>
+      <c r="A172" s="55"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="54"/>
+      <c r="A173" s="55"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="54"/>
+      <c r="A174" s="55"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="54"/>
+      <c r="A175" s="55"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="54"/>
+      <c r="A176" s="55"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="54"/>
+      <c r="A177" s="55"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="54"/>
+      <c r="A178" s="55"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="54"/>
+      <c r="A179" s="55"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="54"/>
+      <c r="A180" s="55"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="54"/>
+      <c r="A181" s="55"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="54"/>
+      <c r="A182" s="55"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="54"/>
+      <c r="A183" s="55"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="54"/>
+      <c r="A184" s="55"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="54"/>
+      <c r="A185" s="55"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="54"/>
+      <c r="A186" s="55"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="54"/>
+      <c r="A187" s="55"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="54"/>
+      <c r="A188" s="55"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="54"/>
+      <c r="A189" s="55"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="54"/>
+      <c r="A190" s="55"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="54"/>
+      <c r="A191" s="55"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="54"/>
+      <c r="A192" s="55"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="54"/>
+      <c r="A193" s="55"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="54"/>
+      <c r="A194" s="55"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="54"/>
+      <c r="A195" s="55"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="54"/>
+      <c r="A196" s="55"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="54"/>
+      <c r="A197" s="55"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="54"/>
+      <c r="A198" s="55"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="54"/>
+      <c r="A199" s="55"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="54"/>
+      <c r="A200" s="55"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="54"/>
+      <c r="A201" s="55"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="54"/>
+      <c r="A202" s="55"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="54"/>
+      <c r="A203" s="55"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="54"/>
+      <c r="A204" s="55"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="54"/>
+      <c r="A205" s="55"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="54"/>
+      <c r="A206" s="55"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="54"/>
+      <c r="A207" s="55"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="54"/>
+      <c r="A208" s="55"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="54"/>
+      <c r="A209" s="55"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="54"/>
+      <c r="A210" s="55"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="54"/>
+      <c r="A211" s="55"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="54"/>
+      <c r="A212" s="55"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="54"/>
+      <c r="A213" s="55"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="54"/>
+      <c r="A214" s="55"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="54"/>
+      <c r="A215" s="55"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="54"/>
+      <c r="A216" s="55"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="54"/>
+      <c r="A217" s="55"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="54"/>
+      <c r="A218" s="55"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="54"/>
+      <c r="A219" s="55"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="54"/>
+      <c r="A220" s="55"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="54"/>
+      <c r="A221" s="55"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="54"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1"/>
+      <c r="A222" s="55"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="55"/>
+    </row>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
@@ -11312,6 +11448,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -11342,16 +11479,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>263</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>267</v>
       </c>
       <c r="E1" s="37"/>
@@ -11378,688 +11515,688 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3">
-      <c r="A3" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4">
-      <c r="A4" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5">
-      <c r="A5" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="60" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" s="59"/>
+      <c r="A5" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="54"/>
+      <c r="A63" s="55"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="54"/>
+      <c r="A64" s="55"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="54"/>
+      <c r="A65" s="55"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="54"/>
+      <c r="A66" s="55"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="54"/>
+      <c r="A67" s="55"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="54"/>
+      <c r="A77" s="55"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="54"/>
+      <c r="A78" s="55"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="54"/>
+      <c r="A79" s="55"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="54"/>
+      <c r="A80" s="55"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="54"/>
+      <c r="A81" s="55"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="54"/>
+      <c r="A82" s="55"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="54"/>
+      <c r="A83" s="55"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="54"/>
+      <c r="A84" s="55"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="54"/>
+      <c r="A85" s="55"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="54"/>
+      <c r="A87" s="55"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="54"/>
+      <c r="A88" s="55"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="54"/>
+      <c r="A89" s="55"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="54"/>
+      <c r="A90" s="55"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="54"/>
+      <c r="A91" s="55"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="54"/>
+      <c r="A92" s="55"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="54"/>
+      <c r="A93" s="55"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="54"/>
+      <c r="A94" s="55"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="54"/>
+      <c r="A95" s="55"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="54"/>
+      <c r="A96" s="55"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="54"/>
+      <c r="A97" s="55"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="54"/>
+      <c r="A98" s="55"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="54"/>
+      <c r="A99" s="55"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="54"/>
+      <c r="A100" s="55"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="54"/>
+      <c r="A101" s="55"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="54"/>
+      <c r="A103" s="55"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="54"/>
+      <c r="A104" s="55"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="54"/>
+      <c r="A105" s="55"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="54"/>
+      <c r="A106" s="55"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="54"/>
+      <c r="A107" s="55"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="54"/>
+      <c r="A108" s="55"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="54"/>
+      <c r="A109" s="55"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="54"/>
+      <c r="A110" s="55"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="54"/>
+      <c r="A111" s="55"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="54"/>
+      <c r="A112" s="55"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="54"/>
+      <c r="A113" s="55"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="54"/>
+      <c r="A114" s="55"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="54"/>
+      <c r="A115" s="55"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="54"/>
+      <c r="A116" s="55"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="54"/>
+      <c r="A117" s="55"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="54"/>
+      <c r="A118" s="55"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="54"/>
+      <c r="A119" s="55"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="54"/>
+      <c r="A120" s="55"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="54"/>
+      <c r="A121" s="55"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="54"/>
+      <c r="A122" s="55"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="54"/>
+      <c r="A123" s="55"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="54"/>
+      <c r="A124" s="55"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="54"/>
+      <c r="A125" s="55"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="54"/>
+      <c r="A126" s="55"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="54"/>
+      <c r="A127" s="55"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="54"/>
+      <c r="A128" s="55"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="54"/>
+      <c r="A129" s="55"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="54"/>
+      <c r="A130" s="55"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="54"/>
+      <c r="A131" s="55"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="54"/>
+      <c r="A132" s="55"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="54"/>
+      <c r="A133" s="55"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="54"/>
+      <c r="A134" s="55"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="54"/>
+      <c r="A135" s="55"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="54"/>
+      <c r="A136" s="55"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="54"/>
+      <c r="A137" s="55"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="54"/>
+      <c r="A138" s="55"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="54"/>
+      <c r="A139" s="55"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="54"/>
+      <c r="A140" s="55"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="54"/>
+      <c r="A141" s="55"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="54"/>
+      <c r="A142" s="55"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="54"/>
+      <c r="A143" s="55"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="54"/>
+      <c r="A144" s="55"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="54"/>
+      <c r="A145" s="55"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="54"/>
+      <c r="A146" s="55"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="54"/>
+      <c r="A147" s="55"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="54"/>
+      <c r="A148" s="55"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="54"/>
+      <c r="A149" s="55"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="54"/>
+      <c r="A150" s="55"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="54"/>
+      <c r="A151" s="55"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="54"/>
+      <c r="A152" s="55"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="54"/>
+      <c r="A153" s="55"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="54"/>
+      <c r="A154" s="55"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="54"/>
+      <c r="A155" s="55"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="54"/>
+      <c r="A156" s="55"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="54"/>
+      <c r="A157" s="55"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="54"/>
+      <c r="A158" s="55"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="54"/>
+      <c r="A159" s="55"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="54"/>
+      <c r="A160" s="55"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="54"/>
+      <c r="A161" s="55"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="54"/>
+      <c r="A162" s="55"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="54"/>
+      <c r="A163" s="55"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="54"/>
+      <c r="A164" s="55"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="54"/>
+      <c r="A165" s="55"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="54"/>
+      <c r="A166" s="55"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="54"/>
+      <c r="A167" s="55"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="54"/>
+      <c r="A168" s="55"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="54"/>
+      <c r="A169" s="55"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="54"/>
+      <c r="A170" s="55"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="54"/>
+      <c r="A171" s="55"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="54"/>
+      <c r="A172" s="55"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="54"/>
+      <c r="A173" s="55"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="54"/>
+      <c r="A174" s="55"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="54"/>
+      <c r="A175" s="55"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="54"/>
+      <c r="A176" s="55"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="54"/>
+      <c r="A177" s="55"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="54"/>
+      <c r="A178" s="55"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="54"/>
+      <c r="A179" s="55"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="54"/>
+      <c r="A180" s="55"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="54"/>
+      <c r="A181" s="55"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="54"/>
+      <c r="A182" s="55"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="54"/>
+      <c r="A183" s="55"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="54"/>
+      <c r="A184" s="55"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="54"/>
+      <c r="A185" s="55"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="54"/>
+      <c r="A186" s="55"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="54"/>
+      <c r="A187" s="55"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="54"/>
+      <c r="A188" s="55"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="54"/>
+      <c r="A189" s="55"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="54"/>
+      <c r="A190" s="55"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="54"/>
+      <c r="A191" s="55"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="54"/>
+      <c r="A192" s="55"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="54"/>
+      <c r="A193" s="55"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="54"/>
+      <c r="A194" s="55"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="54"/>
+      <c r="A195" s="55"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="54"/>
+      <c r="A196" s="55"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="54"/>
+      <c r="A197" s="55"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="54"/>
+      <c r="A198" s="55"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="54"/>
+      <c r="A199" s="55"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="54"/>
+      <c r="A200" s="55"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="54"/>
+      <c r="A201" s="55"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="54"/>
+      <c r="A202" s="55"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="54"/>
+      <c r="A203" s="55"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="54"/>
+      <c r="A204" s="55"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="54"/>
+      <c r="A205" s="55"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="54"/>
+      <c r="A206" s="55"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="54"/>
+      <c r="A207" s="55"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="54"/>
+      <c r="A208" s="55"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="54"/>
+      <c r="A209" s="55"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="54"/>
+      <c r="A210" s="55"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="54"/>
+      <c r="A211" s="55"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="54"/>
+      <c r="A212" s="55"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="54"/>
+      <c r="A213" s="55"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="54"/>
+      <c r="A214" s="55"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="54"/>
+      <c r="A215" s="55"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="54"/>
+      <c r="A216" s="55"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="54"/>
+      <c r="A217" s="55"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="54"/>
+      <c r="A218" s="55"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="54"/>
+      <c r="A219" s="55"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="54"/>
+      <c r="A220" s="55"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -12871,7 +13008,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>270</v>
       </c>
       <c r="B1" s="34" t="s">
@@ -12880,19 +13017,19 @@
       <c r="C1" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>283</v>
       </c>
       <c r="I1" s="37"/>
@@ -12915,712 +13052,712 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3">
-      <c r="A3" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="A3" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4">
-      <c r="A4" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="A4" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5">
-      <c r="A5" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60" t="s">
-        <v>301</v>
+      <c r="A5" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="A6" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="54"/>
+      <c r="A63" s="55"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="54"/>
+      <c r="A64" s="55"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="54"/>
+      <c r="A65" s="55"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="54"/>
+      <c r="A66" s="55"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="54"/>
+      <c r="A67" s="55"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="54"/>
+      <c r="A77" s="55"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="54"/>
+      <c r="A78" s="55"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="54"/>
+      <c r="A79" s="55"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="54"/>
+      <c r="A80" s="55"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="54"/>
+      <c r="A81" s="55"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="54"/>
+      <c r="A82" s="55"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="54"/>
+      <c r="A83" s="55"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="54"/>
+      <c r="A84" s="55"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="54"/>
+      <c r="A85" s="55"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="54"/>
+      <c r="A87" s="55"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="54"/>
+      <c r="A88" s="55"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="54"/>
+      <c r="A89" s="55"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="54"/>
+      <c r="A90" s="55"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="54"/>
+      <c r="A91" s="55"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="54"/>
+      <c r="A92" s="55"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="54"/>
+      <c r="A93" s="55"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="54"/>
+      <c r="A94" s="55"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="54"/>
+      <c r="A95" s="55"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="54"/>
+      <c r="A96" s="55"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="54"/>
+      <c r="A97" s="55"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="54"/>
+      <c r="A98" s="55"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="54"/>
+      <c r="A99" s="55"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="54"/>
+      <c r="A100" s="55"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="54"/>
+      <c r="A101" s="55"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="54"/>
+      <c r="A103" s="55"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="54"/>
+      <c r="A104" s="55"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="54"/>
+      <c r="A105" s="55"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="54"/>
+      <c r="A106" s="55"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="54"/>
+      <c r="A107" s="55"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="54"/>
+      <c r="A108" s="55"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="54"/>
+      <c r="A109" s="55"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="54"/>
+      <c r="A110" s="55"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="54"/>
+      <c r="A111" s="55"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="54"/>
+      <c r="A112" s="55"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="54"/>
+      <c r="A113" s="55"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="54"/>
+      <c r="A114" s="55"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="54"/>
+      <c r="A115" s="55"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="54"/>
+      <c r="A116" s="55"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="54"/>
+      <c r="A117" s="55"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="54"/>
+      <c r="A118" s="55"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="54"/>
+      <c r="A119" s="55"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="54"/>
+      <c r="A120" s="55"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="54"/>
+      <c r="A121" s="55"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="54"/>
+      <c r="A122" s="55"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="54"/>
+      <c r="A123" s="55"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="54"/>
+      <c r="A124" s="55"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="54"/>
+      <c r="A125" s="55"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="54"/>
+      <c r="A126" s="55"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="54"/>
+      <c r="A127" s="55"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="54"/>
+      <c r="A128" s="55"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="54"/>
+      <c r="A129" s="55"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="54"/>
+      <c r="A130" s="55"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="54"/>
+      <c r="A131" s="55"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="54"/>
+      <c r="A132" s="55"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="54"/>
+      <c r="A133" s="55"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="54"/>
+      <c r="A134" s="55"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="54"/>
+      <c r="A135" s="55"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="54"/>
+      <c r="A136" s="55"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="54"/>
+      <c r="A137" s="55"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="54"/>
+      <c r="A138" s="55"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="54"/>
+      <c r="A139" s="55"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="54"/>
+      <c r="A140" s="55"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="54"/>
+      <c r="A141" s="55"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="54"/>
+      <c r="A142" s="55"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="54"/>
+      <c r="A143" s="55"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="54"/>
+      <c r="A144" s="55"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="54"/>
+      <c r="A145" s="55"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="54"/>
+      <c r="A146" s="55"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="54"/>
+      <c r="A147" s="55"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="54"/>
+      <c r="A148" s="55"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="54"/>
+      <c r="A149" s="55"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="54"/>
+      <c r="A150" s="55"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="54"/>
+      <c r="A151" s="55"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="54"/>
+      <c r="A152" s="55"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="54"/>
+      <c r="A153" s="55"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="54"/>
+      <c r="A154" s="55"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="54"/>
+      <c r="A155" s="55"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="54"/>
+      <c r="A156" s="55"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="54"/>
+      <c r="A157" s="55"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="54"/>
+      <c r="A158" s="55"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="54"/>
+      <c r="A159" s="55"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="54"/>
+      <c r="A160" s="55"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="54"/>
+      <c r="A161" s="55"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="54"/>
+      <c r="A162" s="55"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="54"/>
+      <c r="A163" s="55"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="54"/>
+      <c r="A164" s="55"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="54"/>
+      <c r="A165" s="55"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="54"/>
+      <c r="A166" s="55"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="54"/>
+      <c r="A167" s="55"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="54"/>
+      <c r="A168" s="55"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="54"/>
+      <c r="A169" s="55"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="54"/>
+      <c r="A170" s="55"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="54"/>
+      <c r="A171" s="55"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="54"/>
+      <c r="A172" s="55"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="54"/>
+      <c r="A173" s="55"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="54"/>
+      <c r="A174" s="55"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="54"/>
+      <c r="A175" s="55"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="54"/>
+      <c r="A176" s="55"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="54"/>
+      <c r="A177" s="55"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="54"/>
+      <c r="A178" s="55"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="54"/>
+      <c r="A179" s="55"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="54"/>
+      <c r="A180" s="55"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="54"/>
+      <c r="A181" s="55"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="54"/>
+      <c r="A182" s="55"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="54"/>
+      <c r="A183" s="55"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="54"/>
+      <c r="A184" s="55"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="54"/>
+      <c r="A185" s="55"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="54"/>
+      <c r="A186" s="55"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="54"/>
+      <c r="A187" s="55"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="54"/>
+      <c r="A188" s="55"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="54"/>
+      <c r="A189" s="55"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="54"/>
+      <c r="A190" s="55"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="54"/>
+      <c r="A191" s="55"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="54"/>
+      <c r="A192" s="55"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="54"/>
+      <c r="A193" s="55"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="54"/>
+      <c r="A194" s="55"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="54"/>
+      <c r="A195" s="55"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="54"/>
+      <c r="A196" s="55"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="54"/>
+      <c r="A197" s="55"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="54"/>
+      <c r="A198" s="55"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="54"/>
+      <c r="A199" s="55"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="54"/>
+      <c r="A200" s="55"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="54"/>
+      <c r="A201" s="55"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="54"/>
+      <c r="A202" s="55"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="54"/>
+      <c r="A203" s="55"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="54"/>
+      <c r="A204" s="55"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="54"/>
+      <c r="A205" s="55"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="54"/>
+      <c r="A206" s="55"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="54"/>
+      <c r="A207" s="55"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="54"/>
+      <c r="A208" s="55"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="54"/>
+      <c r="A209" s="55"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="54"/>
+      <c r="A210" s="55"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="54"/>
+      <c r="A211" s="55"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="54"/>
+      <c r="A212" s="55"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="54"/>
+      <c r="A213" s="55"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="54"/>
+      <c r="A214" s="55"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="54"/>
+      <c r="A215" s="55"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="54"/>
+      <c r="A216" s="55"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="54"/>
+      <c r="A217" s="55"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="54"/>
+      <c r="A218" s="55"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="54"/>
+      <c r="A219" s="55"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="54"/>
+      <c r="A220" s="55"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -14430,14 +14567,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>383</v>
+      <c r="A1" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -15471,7 +15608,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36"/>
       <c r="B1" s="37" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -15506,669 +15643,669 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B3" s="38"/>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B4" s="38"/>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B5" s="38"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="40"/>
+      <c r="A6" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="54"/>
+      <c r="A63" s="55"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="54"/>
+      <c r="A64" s="55"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="54"/>
+      <c r="A65" s="55"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="54"/>
+      <c r="A66" s="55"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="54"/>
+      <c r="A67" s="55"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="54"/>
+      <c r="A77" s="55"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="54"/>
+      <c r="A78" s="55"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="54"/>
+      <c r="A79" s="55"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="54"/>
+      <c r="A80" s="55"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="54"/>
+      <c r="A81" s="55"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="54"/>
+      <c r="A82" s="55"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="54"/>
+      <c r="A83" s="55"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="54"/>
+      <c r="A84" s="55"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="54"/>
+      <c r="A85" s="55"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="54"/>
+      <c r="A87" s="55"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="54"/>
+      <c r="A88" s="55"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="54"/>
+      <c r="A89" s="55"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="54"/>
+      <c r="A90" s="55"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="54"/>
+      <c r="A91" s="55"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="54"/>
+      <c r="A92" s="55"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="54"/>
+      <c r="A93" s="55"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="54"/>
+      <c r="A94" s="55"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="54"/>
+      <c r="A95" s="55"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="54"/>
+      <c r="A96" s="55"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="54"/>
+      <c r="A97" s="55"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="54"/>
+      <c r="A98" s="55"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="54"/>
+      <c r="A99" s="55"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="54"/>
+      <c r="A100" s="55"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="54"/>
+      <c r="A101" s="55"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="54"/>
+      <c r="A103" s="55"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="54"/>
+      <c r="A104" s="55"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="54"/>
+      <c r="A105" s="55"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="54"/>
+      <c r="A106" s="55"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="54"/>
+      <c r="A107" s="55"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="54"/>
+      <c r="A108" s="55"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="54"/>
+      <c r="A109" s="55"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="54"/>
+      <c r="A110" s="55"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="54"/>
+      <c r="A111" s="55"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="54"/>
+      <c r="A112" s="55"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="54"/>
+      <c r="A113" s="55"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="54"/>
+      <c r="A114" s="55"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="54"/>
+      <c r="A115" s="55"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="54"/>
+      <c r="A116" s="55"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="54"/>
+      <c r="A117" s="55"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="54"/>
+      <c r="A118" s="55"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="54"/>
+      <c r="A119" s="55"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="54"/>
+      <c r="A120" s="55"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="54"/>
+      <c r="A121" s="55"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="54"/>
+      <c r="A122" s="55"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="54"/>
+      <c r="A123" s="55"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="54"/>
+      <c r="A124" s="55"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="54"/>
+      <c r="A125" s="55"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="54"/>
+      <c r="A126" s="55"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="54"/>
+      <c r="A127" s="55"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="54"/>
+      <c r="A128" s="55"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="54"/>
+      <c r="A129" s="55"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="54"/>
+      <c r="A130" s="55"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="54"/>
+      <c r="A131" s="55"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="54"/>
+      <c r="A132" s="55"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="54"/>
+      <c r="A133" s="55"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="54"/>
+      <c r="A134" s="55"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="54"/>
+      <c r="A135" s="55"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="54"/>
+      <c r="A136" s="55"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="54"/>
+      <c r="A137" s="55"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="54"/>
+      <c r="A138" s="55"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="54"/>
+      <c r="A139" s="55"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="54"/>
+      <c r="A140" s="55"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="54"/>
+      <c r="A141" s="55"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="54"/>
+      <c r="A142" s="55"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="54"/>
+      <c r="A143" s="55"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="54"/>
+      <c r="A144" s="55"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="54"/>
+      <c r="A145" s="55"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="54"/>
+      <c r="A146" s="55"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="54"/>
+      <c r="A147" s="55"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="54"/>
+      <c r="A148" s="55"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="54"/>
+      <c r="A149" s="55"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="54"/>
+      <c r="A150" s="55"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="54"/>
+      <c r="A151" s="55"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="54"/>
+      <c r="A152" s="55"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="54"/>
+      <c r="A153" s="55"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="54"/>
+      <c r="A154" s="55"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="54"/>
+      <c r="A155" s="55"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="54"/>
+      <c r="A156" s="55"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="54"/>
+      <c r="A157" s="55"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="54"/>
+      <c r="A158" s="55"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="54"/>
+      <c r="A159" s="55"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="54"/>
+      <c r="A160" s="55"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="54"/>
+      <c r="A161" s="55"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="54"/>
+      <c r="A162" s="55"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="54"/>
+      <c r="A163" s="55"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="54"/>
+      <c r="A164" s="55"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="54"/>
+      <c r="A165" s="55"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="54"/>
+      <c r="A166" s="55"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="54"/>
+      <c r="A167" s="55"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="54"/>
+      <c r="A168" s="55"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="54"/>
+      <c r="A169" s="55"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="54"/>
+      <c r="A170" s="55"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="54"/>
+      <c r="A171" s="55"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="54"/>
+      <c r="A172" s="55"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="54"/>
+      <c r="A173" s="55"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="54"/>
+      <c r="A174" s="55"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="54"/>
+      <c r="A175" s="55"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="54"/>
+      <c r="A176" s="55"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="54"/>
+      <c r="A177" s="55"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="54"/>
+      <c r="A178" s="55"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="54"/>
+      <c r="A179" s="55"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="54"/>
+      <c r="A180" s="55"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="54"/>
+      <c r="A181" s="55"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="54"/>
+      <c r="A182" s="55"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="54"/>
+      <c r="A183" s="55"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="54"/>
+      <c r="A184" s="55"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="54"/>
+      <c r="A185" s="55"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="54"/>
+      <c r="A186" s="55"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="54"/>
+      <c r="A187" s="55"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="54"/>
+      <c r="A188" s="55"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="54"/>
+      <c r="A189" s="55"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="54"/>
+      <c r="A190" s="55"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="54"/>
+      <c r="A191" s="55"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="54"/>
+      <c r="A192" s="55"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="54"/>
+      <c r="A193" s="55"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="54"/>
+      <c r="A194" s="55"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="54"/>
+      <c r="A195" s="55"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="54"/>
+      <c r="A196" s="55"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="54"/>
+      <c r="A197" s="55"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="54"/>
+      <c r="A198" s="55"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="54"/>
+      <c r="A199" s="55"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="54"/>
+      <c r="A200" s="55"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="54"/>
+      <c r="A201" s="55"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="54"/>
+      <c r="A202" s="55"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="54"/>
+      <c r="A203" s="55"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="54"/>
+      <c r="A204" s="55"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="54"/>
+      <c r="A205" s="55"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="54"/>
+      <c r="A206" s="55"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="54"/>
+      <c r="A207" s="55"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="54"/>
+      <c r="A208" s="55"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="54"/>
+      <c r="A209" s="55"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="54"/>
+      <c r="A210" s="55"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="54"/>
+      <c r="A211" s="55"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="54"/>
+      <c r="A212" s="55"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="54"/>
+      <c r="A213" s="55"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="54"/>
+      <c r="A214" s="55"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="54"/>
+      <c r="A215" s="55"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="54"/>
+      <c r="A216" s="55"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="54"/>
+      <c r="A217" s="55"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="54"/>
+      <c r="A218" s="55"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="54"/>
+      <c r="A219" s="55"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="54"/>
+      <c r="A220" s="55"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="400">
   <si>
     <t>Date</t>
   </si>
@@ -1257,6 +1257,9 @@
     <t>TR.BTR.001.CRE.02</t>
   </si>
   <si>
+    <t>ORG.TR.BTR.001.CRE.02</t>
+  </si>
+  <si>
     <t>ACT.TR.BTR.001.CRE.02</t>
   </si>
   <si>
@@ -1299,6 +1302,9 @@
     <t>TR.BTR.001.CRE.03</t>
   </si>
   <si>
+    <t>ORG.TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
     <t>EQU.TR.BTR.001.CRE.03.........</t>
   </si>
   <si>
@@ -1347,6 +1353,9 @@
     <t>TR.BTR.001.LEC.01</t>
   </si>
   <si>
+    <t>ORG.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
     <t>EQU.TR.BTR.001.LEC.01.........</t>
   </si>
   <si>
@@ -1375,6 +1384,9 @@
   </si>
   <si>
     <t>TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.TR.BTR.001.MAJ.01</t>
   </si>
   <si>
     <t>EQU.UPD.TR.BTR.001.MAJ.01.....</t>
@@ -6060,7 +6072,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="13.0"/>
-    <col customWidth="1" min="3" max="3" width="25.0"/>
+    <col customWidth="1" min="3" max="3" width="34.13"/>
     <col customWidth="1" min="4" max="4" width="10.13"/>
     <col customWidth="1" min="5" max="5" width="13.0"/>
     <col customWidth="1" min="6" max="6" width="8.0"/>
@@ -8518,7 +8530,7 @@
         <v>310</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>312</v>
@@ -8536,16 +8548,16 @@
         <v>318</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>318</v>
@@ -8566,19 +8578,19 @@
         <v>319</v>
       </c>
       <c r="S9" s="46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T9" s="19" t="s">
         <v>318</v>
       </c>
       <c r="U9" s="46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V9" s="19" t="s">
         <v>318</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>318</v>
@@ -8587,13 +8599,13 @@
         <v>318</v>
       </c>
       <c r="Z9" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA9" s="43">
         <v>1.0</v>
       </c>
       <c r="AB9" s="46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AC9" s="43" t="s">
         <v>23</v>
@@ -8608,7 +8620,7 @@
         <v>2.0</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH9" s="47">
         <v>44206.0</v>
@@ -8656,7 +8668,7 @@
         <v>318</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AX9" s="47">
         <v>44206.0</v>
@@ -8725,7 +8737,7 @@
         <v>1.0</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="BU9" s="19">
         <v>2.0</v>
@@ -8737,7 +8749,7 @@
         <v>324</v>
       </c>
       <c r="BX9" s="46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="BY9" s="47">
         <v>44197.0</v>
@@ -8806,7 +8818,7 @@
         <v>324</v>
       </c>
       <c r="CU9" s="52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CV9" s="50" t="s">
         <v>324</v>
@@ -8838,13 +8850,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>310</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>312</v>
@@ -8859,19 +8871,19 @@
         <v>313</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>318</v>
@@ -8892,19 +8904,19 @@
         <v>319</v>
       </c>
       <c r="S10" s="46" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="T10" s="19" t="s">
         <v>318</v>
       </c>
       <c r="U10" s="46" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="V10" s="19" t="s">
         <v>318</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>318</v>
@@ -8913,13 +8925,13 @@
         <v>318</v>
       </c>
       <c r="Z10" s="46" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AA10" s="43">
         <v>1.0</v>
       </c>
       <c r="AB10" s="46" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AC10" s="43" t="s">
         <v>23</v>
@@ -8934,7 +8946,7 @@
         <v>3.0</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AH10" s="47">
         <v>44592.0</v>
@@ -8982,7 +8994,7 @@
         <v>318</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AX10" s="47">
         <v>44592.0</v>
@@ -9051,7 +9063,7 @@
         <v>1.0</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="BU10" s="19">
         <v>3.0</v>
@@ -9063,7 +9075,7 @@
         <v>324</v>
       </c>
       <c r="BX10" s="46" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="BY10" s="47">
         <v>44562.0</v>
@@ -9102,7 +9114,7 @@
         <v>332</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="CL10" s="50" t="s">
         <v>324</v>
@@ -9132,7 +9144,7 @@
         <v>324</v>
       </c>
       <c r="CU10" s="52" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="CV10" s="50" t="s">
         <v>324</v>
@@ -9164,13 +9176,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B11" s="53">
         <v>1000.0</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>312</v>
@@ -9185,16 +9197,16 @@
         <v>313</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>327</v>
@@ -9218,19 +9230,19 @@
         <v>319</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="T11" s="19" t="s">
         <v>318</v>
       </c>
       <c r="U11" s="46" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="V11" s="19" t="s">
         <v>318</v>
       </c>
       <c r="W11" s="46" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>318</v>
@@ -9239,13 +9251,13 @@
         <v>318</v>
       </c>
       <c r="Z11" s="46" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AA11" s="43">
         <v>1.0</v>
       </c>
       <c r="AB11" s="46" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AC11" s="43" t="s">
         <v>23</v>
@@ -9260,7 +9272,7 @@
         <v>4.0</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AH11" s="47">
         <v>44958.0</v>
@@ -9308,7 +9320,7 @@
         <v>318</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AX11" s="47">
         <v>44958.0</v>
@@ -9389,7 +9401,7 @@
         <v>324</v>
       </c>
       <c r="BX11" s="46" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="BY11" s="47">
         <v>44927.0</v>
@@ -9490,13 +9502,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B12" s="53">
         <v>1001.0</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>312</v>
@@ -9511,19 +9523,19 @@
         <v>313</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>318</v>
@@ -9544,19 +9556,19 @@
         <v>319</v>
       </c>
       <c r="S12" s="46" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="T12" s="19" t="s">
         <v>318</v>
       </c>
       <c r="U12" s="46" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="V12" s="19" t="s">
         <v>318</v>
       </c>
       <c r="W12" s="46" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>318</v>
@@ -9565,13 +9577,13 @@
         <v>318</v>
       </c>
       <c r="Z12" s="46" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AA12" s="43">
         <v>1.0</v>
       </c>
       <c r="AB12" s="46" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AC12" s="43" t="s">
         <v>23</v>
@@ -9586,7 +9598,7 @@
         <v>5.0</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AH12" s="47">
         <v>43831.0</v>
@@ -9634,7 +9646,7 @@
         <v>318</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AX12" s="47">
         <v>43831.0</v>
@@ -9703,7 +9715,7 @@
         <v>1.0</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="BU12" s="19">
         <v>3.0</v>
@@ -9715,7 +9727,7 @@
         <v>324</v>
       </c>
       <c r="BX12" s="46" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="BY12" s="47">
         <v>43831.0</v>
@@ -9754,7 +9766,7 @@
         <v>332</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="CL12" s="50" t="s">
         <v>324</v>
@@ -9784,7 +9796,7 @@
         <v>324</v>
       </c>
       <c r="CU12" s="52" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="CV12" s="50" t="s">
         <v>324</v>
@@ -9816,7 +9828,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B13" s="53">
         <v>1002.0</v>
@@ -9930,7 +9942,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B14" s="53">
         <v>1003.0</v>
@@ -11544,7 +11556,7 @@
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="61" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D5" s="60"/>
     </row>
@@ -13057,7 +13069,7 @@
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="61" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
@@ -14568,13 +14580,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -15608,7 +15620,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36"/>
       <c r="B1" s="37" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>

--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -216,7 +216,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhVO9ph4IGNH+bAQb89DttW35lvtw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjM7VewRqW7QlQ1ozmwq6YmFUMYbA=="/>
     </ext>
   </extLst>
 </comments>
@@ -1221,7 +1221,7 @@
     <t>TRAVAIL SUR EQUIPEMENT</t>
   </si>
   <si>
-    <t>ATTENTE REPONSE MOE</t>
+    <t>$TBD</t>
   </si>
   <si>
     <t>TRAVAIL REALISE SUR EQUIPEMENT</t>
@@ -1873,7 +1873,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>

--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -15,7 +15,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="MSc/vaCAmpDvr2ihNm4+T0bXqWATaWk2nwwkXweUehg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="69vxG9xKPjbBhYeBv8ozN6v8uPJgIrg04olIfPAkA00="/>
     </ext>
   </extLst>
 </workbook>
@@ -27,39 +27,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F86">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwx8adYI
-Jean-Marc LAFARGE    (2023-05-12 13:49:12)
-@nicolas.huc@apave.com
-C'est où dans "TNR Cas de test à implémenter" ? c'est quelle table ?
-BUDGETLIG ?
-_Attribuée à Nicolas HUC_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F85">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwx8adYE
-Jean-Marc LAFARGE    (2023-05-12 13:49:01)
-@nicolas.huc@apave.com
-C'est où dans "TNR Cas de test à implémenter" ? c'est quelle table ?
-BUDGETLIG ?
-_Attribuée à Nicolas HUC_
-------
-ID#AAAAwz5OEUI
-Nicolas HUC    (2023-05-12 14:49:56)
-Je ne connais pas le nom des tables. 
-TR.BUD.002
-------
-ID#AAAAwz5OEUM
-Nicolas HUC    (2023-05-12 14:51:22)
-et TR.BUD.003
-puis pour les budgets de fonctionnement:
-TR.BUD.008 et TR.BUD.009</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="D120">
       <text>
         <t xml:space="preserve">======
@@ -69,89 +36,46 @@
 _Attribuée à Jean-Marc LAFARGE_</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D100">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwxs45IQ
-Nicolas HUC    (2023-05-11 13:41:30)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="D94">
       <text>
         <t xml:space="preserve">======
 ID#AAAAwxs45IE
 Nicolas HUC    (2023-05-11 13:41:02)
 @jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D92">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwxs45IA
-Nicolas HUC    (2023-05-11 13:40:54)
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA2EAzX6c
+Jean-Marc LAFARGE    (2023-08-01 09:57:49)
+Calculé, au changement de phase, il est mis à O, permet de lancer la levée de l'observation @nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_
+------
+ID#AAAA2EGr_3E
+Nicolas HUC    (2023-08-01 13:30:10)
+Donc vide au départ ?
 @jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D66">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwxs45H4
-Nicolas HUC    (2023-05-11 13:40:34)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D64">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwxs45Hw
-Nicolas HUC    (2023-05-11 13:40:09)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D63">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwxs45Hs
-Nicolas HUC    (2023-05-11 13:39:56)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D59">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwxs45Ho
-Nicolas HUC    (2023-05-11 13:39:44)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D58">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwxs45Hk
-Nicolas HUC    (2023-05-11 13:39:32)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Réattribué à Jean-Marc LAFARGE_
+------
+ID#AAAA2ldrgcU
+Jean-Marc LAFARGE    (2023-08-02 06:07:53)
+oui NULL, j'ai mis à jour le JDD
+------
+ID#AAAA2ldrgcY
+Jean-Marc LAFARGE    (2023-08-02 06:08:11)
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjOxaiWBc0KWy+S8Af2MpA1VzYynQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miJl1Tg2HY9HAIQ9yW51vCPGUCU3Q=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="398">
   <si>
     <t>Date</t>
   </si>
@@ -660,10 +584,7 @@
     <t>NU_USA</t>
   </si>
   <si>
-    <t>Usage de l'équipement</t>
-  </si>
-  <si>
-    <t>Question MOE: Cette rubrique contient elle une indication de compteur ou bien une valeur de l'usage ?</t>
+    <t>Indication du compteur de l'équipement</t>
   </si>
   <si>
     <t>NU_USAMAT</t>
@@ -699,8 +620,66 @@
     <t>varchar(1)</t>
   </si>
   <si>
-    <t>Calculé
-Question MOE: Quelles sont les règles de gestion de cette rubrique ? Obsolète ?</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">Calculé
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Vide: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Le BT n'est pas issu du plan de maintenance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">: Le BT issu du plan de maintenance est le maître (Qu'il soit issu d'une séquence ou non)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">I: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Le BT issu du plan de maintenance est une tâche induite au sein d'une séquence
+</t>
+    </r>
   </si>
   <si>
     <t>ST_INA</t>
@@ -712,6 +691,25 @@
     <t>boolean</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">Calculé
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Demande d'effacement du BT via un connecteur d'import des données</t>
+    </r>
+  </si>
+  <si>
     <t>ST_BLO</t>
   </si>
   <si>
@@ -724,8 +722,48 @@
     <t>Affecté</t>
   </si>
   <si>
-    <t>Calculé
-Question MOE: Quelles sont les règles de gestion de cette rubrique ?</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">Calculé
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Vide</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">:Tous les autre cas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>: L'acteur responsable du BT a été affecté par le traitement automatique</t>
+    </r>
   </si>
   <si>
     <t>ST_OT</t>
@@ -908,7 +946,7 @@
     <t>ST_PLANIF</t>
   </si>
   <si>
-    <t>Planifié</t>
+    <t>Planifier le travail</t>
   </si>
   <si>
     <t>ST_DOC</t>
@@ -927,7 +965,8 @@
   </si>
   <si>
     <t>Calculé
-Question MOE: Quelles sont les valeurs attendues ?</t>
+Vide par défaut.
+Calculé par le traitement de changement de phase (O permet de lancer la levée de l'observation)</t>
   </si>
   <si>
     <t>ID_NUMMOTLIG</t>
@@ -1093,6 +1132,10 @@
     <t>varchar(3)</t>
   </si>
   <si>
+    <t>Calculé
+Question MOE: Quelles sont les règles de gestion de cette rubrique ?</t>
+  </si>
+  <si>
     <t>ST_COD</t>
   </si>
   <si>
@@ -1223,9 +1266,6 @@
   </si>
   <si>
     <t>TRAVAIL REALISE SUR EQUIPEMENT</t>
-  </si>
-  <si>
-    <t>$TBD</t>
   </si>
   <si>
     <t>$DATETIMESYS</t>
@@ -1594,7 +1634,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1665,6 +1705,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
@@ -1814,9 +1860,6 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1843,6 +1886,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1884,13 +1930,13 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1898,7 +1944,7 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="12" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1916,17 +1962,17 @@
     <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="15" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="5" fillId="16" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4189,32 +4235,30 @@
       <c r="C58" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="21"/>
+      <c r="E59" s="27" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>151</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>152</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>93</v>
@@ -4228,24 +4272,24 @@
     </row>
     <row r="61">
       <c r="A61" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="E61" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>156</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>26</v>
@@ -4259,30 +4303,36 @@
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="D63" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>160</v>
+      <c r="E63" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="C64" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="D64" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="27" t="s">
-        <v>160</v>
+      <c r="E64" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -4293,13 +4343,13 @@
         <v>165</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="84.75" customHeight="1">
       <c r="A66" s="18" t="s">
         <v>166</v>
       </c>
@@ -4307,10 +4357,13 @@
         <v>167</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>168</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -4321,7 +4374,7 @@
         <v>170</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>31</v>
@@ -4462,7 +4515,7 @@
         <v>188</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>27</v>
@@ -4478,7 +4531,7 @@
       <c r="C77" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="27" t="s">
         <v>191</v>
       </c>
       <c r="E77" s="21" t="s">
@@ -4599,7 +4652,7 @@
       <c r="E85" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4616,7 +4669,7 @@
       <c r="E86" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="F86" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4628,7 +4681,7 @@
         <v>211</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>27</v>
@@ -4656,7 +4709,7 @@
         <v>216</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>27</v>
@@ -4694,16 +4747,16 @@
       <c r="A92" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E92" s="21"/>
+        <v>162</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="18" t="s">
@@ -4727,7 +4780,7 @@
         <v>227</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>228</v>
@@ -4763,7 +4816,7 @@
       <c r="C96" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="27" t="s">
         <v>234</v>
       </c>
       <c r="E96" s="21" t="s">
@@ -4778,7 +4831,7 @@
         <v>236</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>27</v>
@@ -4809,10 +4862,11 @@
         <v>240</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>31</v>
+        <v>162</v>
+      </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="100">
@@ -4823,10 +4877,13 @@
         <v>242</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>168</v>
+        <v>31</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="101">
@@ -4910,7 +4967,7 @@
         <v>250</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>27</v>
@@ -4991,27 +5048,27 @@
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C111" s="32"/>
-      <c r="D111" s="30">
+      <c r="C111" s="31"/>
+      <c r="D111" s="29">
         <v>1087.0</v>
       </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="22" t="s">
@@ -5020,32 +5077,32 @@
       <c r="E112" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F112" s="36"/>
+      <c r="F112" s="35"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="D113" s="36"/>
+      <c r="D113" s="35"/>
       <c r="E113" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F113" s="36"/>
+      <c r="F113" s="35"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="22" t="s">
@@ -5054,49 +5111,49 @@
       <c r="E114" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F114" s="36"/>
+      <c r="F114" s="35"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="30">
+      <c r="C115" s="31"/>
+      <c r="D115" s="29">
         <v>1416.0</v>
       </c>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D116" s="36"/>
+      <c r="D116" s="35"/>
       <c r="E116" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F116" s="36"/>
+      <c r="F116" s="35"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="36"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="21" t="s">
         <v>27</v>
       </c>
@@ -5105,84 +5162,84 @@
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D118" s="36"/>
+      <c r="D118" s="35"/>
       <c r="E118" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F118" s="36"/>
+      <c r="F118" s="35"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C119" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D119" s="36"/>
+      <c r="D119" s="35"/>
       <c r="E119" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="36"/>
+      <c r="F119" s="35"/>
     </row>
     <row r="120">
-      <c r="A120" s="34" t="s">
+      <c r="A120" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C120" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="D120" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
+      <c r="D120" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
     </row>
     <row r="121">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="B121" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
     </row>
     <row r="122">
-      <c r="A122" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="B122" s="34" t="s">
+      <c r="A122" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="B122" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C122" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D122" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
+      <c r="D122" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
     </row>
     <row r="123" ht="12.75" customHeight="1"/>
     <row r="124" ht="12.75" customHeight="1"/>
@@ -6314,22 +6371,22 @@
         <v>146</v>
       </c>
       <c r="BE1" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BF1" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BG1" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BH1" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BI1" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BJ1" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BK1" s="38" t="s">
         <v>164</v>
@@ -6478,7 +6535,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>9</v>
@@ -6493,13 +6550,13 @@
         <v>42</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>9</v>
@@ -6508,7 +6565,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
@@ -6516,25 +6573,25 @@
         <v>42</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R2" s="39" t="s">
         <v>42</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T2" s="39" t="s">
         <v>9</v>
       </c>
       <c r="U2" s="41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W2" s="41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X2" s="39" t="s">
         <v>42</v>
@@ -6543,7 +6600,7 @@
         <v>42</v>
       </c>
       <c r="Z2" s="39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA2" s="39" t="s">
         <v>9</v>
@@ -6635,8 +6692,8 @@
       <c r="BD2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="39" t="s">
-        <v>9</v>
+      <c r="BE2" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="BF2" s="39" t="s">
         <v>9</v>
@@ -6693,7 +6750,7 @@
         <v>9</v>
       </c>
       <c r="BX2" s="41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BY2" s="39" t="s">
         <v>9</v>
@@ -6755,26 +6812,26 @@
       <c r="CR2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="CS2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT2" s="39" t="s">
-        <v>9</v>
+      <c r="CS2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="CT2" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="CU2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="CV2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY2" s="39" t="s">
-        <v>9</v>
+      <c r="CV2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="CW2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="CX2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="CY2" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="CZ2" s="39" t="s">
         <v>9</v>
@@ -6794,13 +6851,13 @@
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>9</v>
@@ -6815,7 +6872,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I3" s="39" t="s">
         <v>9</v>
@@ -6848,7 +6905,7 @@
         <v>9</v>
       </c>
       <c r="S3" s="41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T3" s="39" t="s">
         <v>9</v>
@@ -7120,7 +7177,7 @@
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -7193,7 +7250,7 @@
       <c r="BR4" s="39"/>
       <c r="BS4" s="39"/>
       <c r="BT4" s="41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BU4" s="39"/>
       <c r="BV4" s="39"/>
@@ -7222,7 +7279,7 @@
       <c r="CS4" s="39"/>
       <c r="CT4" s="39"/>
       <c r="CU4" s="41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="CV4" s="39"/>
       <c r="CW4" s="39"/>
@@ -7236,7 +7293,7 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>9</v>
@@ -7286,7 +7343,7 @@
         <v>9</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T5" s="39" t="s">
         <v>9</v>
@@ -7558,7 +7615,7 @@
     </row>
     <row r="6">
       <c r="A6" s="39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>9</v>
@@ -7582,7 +7639,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>9</v>
@@ -7633,7 +7690,7 @@
         <v>9</v>
       </c>
       <c r="Z6" s="39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA6" s="39" t="s">
         <v>9</v>
@@ -7642,7 +7699,7 @@
         <v>9</v>
       </c>
       <c r="AC6" s="39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AD6" s="39" t="s">
         <v>9</v>
@@ -7741,7 +7798,7 @@
         <v>9</v>
       </c>
       <c r="BJ6" s="39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BK6" s="39" t="s">
         <v>9</v>
@@ -7884,7 +7941,7 @@
     </row>
     <row r="7">
       <c r="A7" s="42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>9</v>
@@ -8210,88 +8267,88 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C8" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>308</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>307</v>
       </c>
       <c r="F8" s="19">
         <v>1.0</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H8" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="I8" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="J8" s="47" t="s">
+      <c r="M8" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="U8" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="R8" s="19" t="s">
+      <c r="V8" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="S8" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="U8" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="W8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z8" s="47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA8" s="44">
         <v>1.0</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC8" s="44" t="s">
         <v>23</v>
@@ -8306,7 +8363,7 @@
         <v>1.0</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AH8" s="48">
         <v>43832.0</v>
@@ -8351,10 +8408,10 @@
         <v>1000.0</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AX8" s="48">
         <v>43832.0</v>
@@ -8374,32 +8431,30 @@
       <c r="BC8" s="49">
         <v>0.3645833333333333</v>
       </c>
-      <c r="BD8" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE8" s="51" t="s">
-        <v>322</v>
-      </c>
+      <c r="BD8" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BE8" s="51"/>
       <c r="BF8" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="BG8" s="53" t="s">
-        <v>315</v>
+      <c r="BG8" s="51" t="s">
+        <v>316</v>
       </c>
       <c r="BH8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="BI8" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BJ8" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="BI8" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ8" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="BK8" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="BL8" s="51" t="s">
-        <v>322</v>
+      <c r="BL8" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="BM8" s="19" t="s">
         <v>324</v>
@@ -8456,16 +8511,16 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CG8" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CI8" s="19" t="s">
         <v>329</v>
@@ -8476,50 +8531,38 @@
       <c r="CK8" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="CL8" s="51" t="s">
-        <v>322</v>
+      <c r="CL8" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="CM8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CN8" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="CN8" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="CO8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CP8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CQ8" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CR8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CS8" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="CT8" s="51" t="s">
-        <v>322</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="CS8" s="53"/>
+      <c r="CT8" s="51"/>
       <c r="CU8" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="CV8" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CW8" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CX8" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CY8" s="53" t="s">
-        <v>315</v>
-      </c>
+      <c r="CV8" s="51"/>
+      <c r="CW8" s="51"/>
+      <c r="CX8" s="51"/>
+      <c r="CY8" s="51"/>
       <c r="CZ8" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DA8" s="46" t="s">
         <v>325</v>
@@ -8539,25 +8582,25 @@
         <v>333</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>334</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F9" s="19">
         <v>1.0</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I9" s="47" t="s">
         <v>335</v>
@@ -8572,43 +8615,43 @@
         <v>338</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S9" s="47" t="s">
         <v>339</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U9" s="47" t="s">
         <v>335</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>340</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z9" s="47" t="s">
         <v>341</v>
@@ -8677,7 +8720,7 @@
         <v>2000.0</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW9" s="19" t="s">
         <v>344</v>
@@ -8700,32 +8743,30 @@
       <c r="BC9" s="49">
         <v>0.40625</v>
       </c>
-      <c r="BD9" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE9" s="51" t="s">
-        <v>322</v>
-      </c>
+      <c r="BD9" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BE9" s="51"/>
       <c r="BF9" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="BG9" s="53" t="s">
-        <v>315</v>
+      <c r="BG9" s="51" t="s">
+        <v>316</v>
       </c>
       <c r="BH9" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="BI9" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BJ9" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="BI9" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ9" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="BK9" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="BL9" s="51" t="s">
-        <v>322</v>
+      <c r="BL9" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="BM9" s="19" t="s">
         <v>324</v>
@@ -8782,70 +8823,58 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CG9" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CI9" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CJ9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CK9" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CL9" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="CL9" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="CM9" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CN9" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="CN9" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="CO9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CP9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CQ9" s="19" t="s">
         <v>329</v>
       </c>
       <c r="CR9" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CS9" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="CT9" s="51" t="s">
-        <v>322</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="CS9" s="53"/>
+      <c r="CT9" s="51"/>
       <c r="CU9" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="CV9" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CW9" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CX9" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CY9" s="53" t="s">
-        <v>315</v>
-      </c>
+      <c r="CV9" s="51"/>
+      <c r="CW9" s="51"/>
+      <c r="CX9" s="51"/>
+      <c r="CY9" s="51"/>
       <c r="CZ9" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DA9" s="46" t="s">
         <v>325</v>
@@ -8865,22 +8894,22 @@
         <v>348</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>349</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F10" s="19">
         <v>1.0</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>350</v>
@@ -8898,43 +8927,43 @@
         <v>354</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N10" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S10" s="47" t="s">
         <v>355</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U10" s="47" t="s">
         <v>351</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W10" s="19" t="s">
         <v>356</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z10" s="47" t="s">
         <v>357</v>
@@ -9003,7 +9032,7 @@
         <v>3000.0</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW10" s="19" t="s">
         <v>360</v>
@@ -9026,32 +9055,30 @@
       <c r="BC10" s="49">
         <v>0.5729166666666666</v>
       </c>
-      <c r="BD10" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE10" s="51" t="s">
-        <v>322</v>
-      </c>
+      <c r="BD10" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BE10" s="51"/>
       <c r="BF10" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="BG10" s="53" t="s">
-        <v>315</v>
+      <c r="BG10" s="51" t="s">
+        <v>316</v>
       </c>
       <c r="BH10" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="BI10" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BJ10" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="BI10" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ10" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="BK10" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="BL10" s="51" t="s">
-        <v>322</v>
+      <c r="BL10" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="BM10" s="19" t="s">
         <v>324</v>
@@ -9108,16 +9135,16 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CG10" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CI10" s="19" t="s">
         <v>329</v>
@@ -9128,50 +9155,38 @@
       <c r="CK10" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="CL10" s="51" t="s">
-        <v>322</v>
+      <c r="CL10" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="CM10" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CN10" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="CN10" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="CO10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CP10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CQ10" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CR10" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CS10" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="CT10" s="51" t="s">
-        <v>322</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="CS10" s="53"/>
+      <c r="CT10" s="51"/>
       <c r="CU10" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="CV10" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CW10" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CX10" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CY10" s="53" t="s">
-        <v>315</v>
-      </c>
+      <c r="CV10" s="51"/>
+      <c r="CW10" s="51"/>
+      <c r="CX10" s="51"/>
+      <c r="CY10" s="51"/>
       <c r="CZ10" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DA10" s="46" t="s">
         <v>325</v>
@@ -9197,7 +9212,7 @@
         <v>366</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E11" s="44">
         <v>1000.0</v>
@@ -9206,7 +9221,7 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H11" s="47" t="s">
         <v>367</v>
@@ -9224,7 +9239,7 @@
         <v>324</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N11" s="46">
         <v>1000.0</v>
@@ -9233,34 +9248,34 @@
         <v>2000.0</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S11" s="47" t="s">
         <v>371</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U11" s="47" t="s">
         <v>368</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W11" s="47" t="s">
         <v>372</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z11" s="47" t="s">
         <v>373</v>
@@ -9329,7 +9344,7 @@
         <v>4000.0</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW11" s="19" t="s">
         <v>360</v>
@@ -9352,32 +9367,30 @@
       <c r="BC11" s="49">
         <v>0.6145833333333334</v>
       </c>
-      <c r="BD11" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE11" s="51" t="s">
-        <v>322</v>
-      </c>
+      <c r="BD11" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BE11" s="51"/>
       <c r="BF11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="BG11" s="53" t="s">
-        <v>315</v>
+      <c r="BG11" s="51" t="s">
+        <v>316</v>
       </c>
       <c r="BH11" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="BI11" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BJ11" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="BI11" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ11" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="BK11" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="BL11" s="51" t="s">
-        <v>322</v>
+      <c r="BL11" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="BM11" s="19" t="s">
         <v>324</v>
@@ -9434,70 +9447,58 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CG11" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CI11" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CL11" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="CL11" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="CM11" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CN11" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="CN11" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="CO11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CP11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CQ11" s="19" t="s">
         <v>329</v>
       </c>
       <c r="CR11" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CS11" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="CT11" s="51" t="s">
-        <v>322</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="CS11" s="53"/>
+      <c r="CT11" s="51"/>
       <c r="CU11" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="CV11" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CW11" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CX11" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CY11" s="53" t="s">
-        <v>315</v>
-      </c>
+      <c r="CV11" s="51"/>
+      <c r="CW11" s="51"/>
+      <c r="CX11" s="51"/>
+      <c r="CY11" s="51"/>
       <c r="CZ11" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DA11" s="46" t="s">
         <v>325</v>
@@ -9523,7 +9524,7 @@
         <v>377</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E12" s="44">
         <v>1001.0</v>
@@ -9532,7 +9533,7 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H12" s="47" t="s">
         <v>378</v>
@@ -9550,7 +9551,7 @@
         <v>382</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N12" s="46">
         <v>1001.0</v>
@@ -9559,34 +9560,34 @@
         <v>2001.0</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S12" s="47" t="s">
         <v>383</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U12" s="47" t="s">
         <v>379</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W12" s="47" t="s">
         <v>384</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z12" s="47" t="s">
         <v>385</v>
@@ -9655,7 +9656,7 @@
         <v>5000.0</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AW12" s="19" t="s">
         <v>360</v>
@@ -9678,32 +9679,30 @@
       <c r="BC12" s="49">
         <v>0.40625</v>
       </c>
-      <c r="BD12" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE12" s="51" t="s">
-        <v>322</v>
-      </c>
+      <c r="BD12" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BE12" s="51"/>
       <c r="BF12" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="BG12" s="53" t="s">
-        <v>315</v>
+      <c r="BG12" s="51" t="s">
+        <v>316</v>
       </c>
       <c r="BH12" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="BI12" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="BJ12" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="BI12" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ12" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="BK12" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="BL12" s="51" t="s">
-        <v>322</v>
+      <c r="BL12" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="BM12" s="19" t="s">
         <v>324</v>
@@ -9760,16 +9759,16 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CF12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CG12" s="19" t="s">
         <v>324</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CI12" s="19" t="s">
         <v>329</v>
@@ -9780,50 +9779,38 @@
       <c r="CK12" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="CL12" s="51" t="s">
-        <v>322</v>
+      <c r="CL12" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="CM12" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CN12" s="51" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="CN12" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="CO12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CP12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CQ12" s="19" t="s">
         <v>329</v>
       </c>
       <c r="CR12" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="CS12" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="CT12" s="51" t="s">
-        <v>322</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="CS12" s="53"/>
+      <c r="CT12" s="51"/>
       <c r="CU12" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="CV12" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CW12" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CX12" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="CY12" s="53" t="s">
-        <v>315</v>
-      </c>
+      <c r="CV12" s="51"/>
+      <c r="CW12" s="51"/>
+      <c r="CX12" s="51"/>
+      <c r="CY12" s="51"/>
       <c r="CZ12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DA12" s="46" t="s">
         <v>325</v>
@@ -9845,112 +9832,112 @@
       <c r="B13" s="55">
         <v>1002.0</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-      <c r="BF13" s="53"/>
-      <c r="BG13" s="53"/>
-      <c r="BH13" s="53"/>
-      <c r="BI13" s="53"/>
-      <c r="BJ13" s="53"/>
-      <c r="BK13" s="53"/>
-      <c r="BL13" s="53"/>
-      <c r="BM13" s="53"/>
-      <c r="BN13" s="53"/>
-      <c r="BO13" s="53"/>
-      <c r="BP13" s="53"/>
-      <c r="BQ13" s="53"/>
-      <c r="BR13" s="53"/>
-      <c r="BS13" s="53"/>
-      <c r="BT13" s="53"/>
-      <c r="BU13" s="53"/>
-      <c r="BV13" s="53"/>
-      <c r="BW13" s="53"/>
-      <c r="BX13" s="53"/>
-      <c r="BY13" s="53"/>
-      <c r="BZ13" s="53"/>
-      <c r="CA13" s="53"/>
-      <c r="CB13" s="53"/>
-      <c r="CC13" s="53"/>
-      <c r="CD13" s="53"/>
-      <c r="CE13" s="53"/>
-      <c r="CF13" s="53"/>
-      <c r="CG13" s="53"/>
-      <c r="CH13" s="53"/>
-      <c r="CI13" s="53"/>
-      <c r="CJ13" s="53"/>
-      <c r="CK13" s="53"/>
-      <c r="CL13" s="53"/>
-      <c r="CM13" s="53"/>
-      <c r="CN13" s="53"/>
-      <c r="CO13" s="53"/>
-      <c r="CP13" s="53"/>
-      <c r="CQ13" s="53"/>
-      <c r="CR13" s="53"/>
-      <c r="CS13" s="53"/>
-      <c r="CT13" s="53"/>
-      <c r="CU13" s="53"/>
-      <c r="CV13" s="53"/>
-      <c r="CW13" s="53"/>
-      <c r="CX13" s="53"/>
-      <c r="CY13" s="53"/>
-      <c r="CZ13" s="53"/>
-      <c r="DA13" s="53"/>
-      <c r="DB13" s="53"/>
-      <c r="DC13" s="53"/>
-      <c r="DD13" s="53"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="51"/>
+      <c r="BN13" s="51"/>
+      <c r="BO13" s="51"/>
+      <c r="BP13" s="51"/>
+      <c r="BQ13" s="51"/>
+      <c r="BR13" s="51"/>
+      <c r="BS13" s="51"/>
+      <c r="BT13" s="51"/>
+      <c r="BU13" s="51"/>
+      <c r="BV13" s="51"/>
+      <c r="BW13" s="51"/>
+      <c r="BX13" s="51"/>
+      <c r="BY13" s="51"/>
+      <c r="BZ13" s="51"/>
+      <c r="CA13" s="51"/>
+      <c r="CB13" s="51"/>
+      <c r="CC13" s="51"/>
+      <c r="CD13" s="51"/>
+      <c r="CE13" s="51"/>
+      <c r="CF13" s="51"/>
+      <c r="CG13" s="51"/>
+      <c r="CH13" s="51"/>
+      <c r="CI13" s="51"/>
+      <c r="CJ13" s="51"/>
+      <c r="CK13" s="51"/>
+      <c r="CL13" s="51"/>
+      <c r="CM13" s="51"/>
+      <c r="CN13" s="51"/>
+      <c r="CO13" s="51"/>
+      <c r="CP13" s="51"/>
+      <c r="CQ13" s="51"/>
+      <c r="CR13" s="51"/>
+      <c r="CS13" s="51"/>
+      <c r="CT13" s="51"/>
+      <c r="CU13" s="51"/>
+      <c r="CV13" s="51"/>
+      <c r="CW13" s="51"/>
+      <c r="CX13" s="51"/>
+      <c r="CY13" s="51"/>
+      <c r="CZ13" s="51"/>
+      <c r="DA13" s="51"/>
+      <c r="DB13" s="51"/>
+      <c r="DC13" s="51"/>
+      <c r="DD13" s="51"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="43" t="s">
@@ -9959,112 +9946,112 @@
       <c r="B14" s="55">
         <v>1003.0</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="53"/>
-      <c r="AM14" s="53"/>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="53"/>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53"/>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="53"/>
-      <c r="BB14" s="53"/>
-      <c r="BC14" s="53"/>
-      <c r="BD14" s="53"/>
-      <c r="BE14" s="53"/>
-      <c r="BF14" s="53"/>
-      <c r="BG14" s="53"/>
-      <c r="BH14" s="53"/>
-      <c r="BI14" s="53"/>
-      <c r="BJ14" s="53"/>
-      <c r="BK14" s="53"/>
-      <c r="BL14" s="53"/>
-      <c r="BM14" s="53"/>
-      <c r="BN14" s="53"/>
-      <c r="BO14" s="53"/>
-      <c r="BP14" s="53"/>
-      <c r="BQ14" s="53"/>
-      <c r="BR14" s="53"/>
-      <c r="BS14" s="53"/>
-      <c r="BT14" s="53"/>
-      <c r="BU14" s="53"/>
-      <c r="BV14" s="53"/>
-      <c r="BW14" s="53"/>
-      <c r="BX14" s="53"/>
-      <c r="BY14" s="53"/>
-      <c r="BZ14" s="53"/>
-      <c r="CA14" s="53"/>
-      <c r="CB14" s="53"/>
-      <c r="CC14" s="53"/>
-      <c r="CD14" s="53"/>
-      <c r="CE14" s="53"/>
-      <c r="CF14" s="53"/>
-      <c r="CG14" s="53"/>
-      <c r="CH14" s="53"/>
-      <c r="CI14" s="53"/>
-      <c r="CJ14" s="53"/>
-      <c r="CK14" s="53"/>
-      <c r="CL14" s="53"/>
-      <c r="CM14" s="53"/>
-      <c r="CN14" s="53"/>
-      <c r="CO14" s="53"/>
-      <c r="CP14" s="53"/>
-      <c r="CQ14" s="53"/>
-      <c r="CR14" s="53"/>
-      <c r="CS14" s="53"/>
-      <c r="CT14" s="53"/>
-      <c r="CU14" s="53"/>
-      <c r="CV14" s="53"/>
-      <c r="CW14" s="53"/>
-      <c r="CX14" s="53"/>
-      <c r="CY14" s="53"/>
-      <c r="CZ14" s="53"/>
-      <c r="DA14" s="53"/>
-      <c r="DB14" s="53"/>
-      <c r="DC14" s="53"/>
-      <c r="DD14" s="53"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+      <c r="BN14" s="51"/>
+      <c r="BO14" s="51"/>
+      <c r="BP14" s="51"/>
+      <c r="BQ14" s="51"/>
+      <c r="BR14" s="51"/>
+      <c r="BS14" s="51"/>
+      <c r="BT14" s="51"/>
+      <c r="BU14" s="51"/>
+      <c r="BV14" s="51"/>
+      <c r="BW14" s="51"/>
+      <c r="BX14" s="51"/>
+      <c r="BY14" s="51"/>
+      <c r="BZ14" s="51"/>
+      <c r="CA14" s="51"/>
+      <c r="CB14" s="51"/>
+      <c r="CC14" s="51"/>
+      <c r="CD14" s="51"/>
+      <c r="CE14" s="51"/>
+      <c r="CF14" s="51"/>
+      <c r="CG14" s="51"/>
+      <c r="CH14" s="51"/>
+      <c r="CI14" s="51"/>
+      <c r="CJ14" s="51"/>
+      <c r="CK14" s="51"/>
+      <c r="CL14" s="51"/>
+      <c r="CM14" s="51"/>
+      <c r="CN14" s="51"/>
+      <c r="CO14" s="51"/>
+      <c r="CP14" s="51"/>
+      <c r="CQ14" s="51"/>
+      <c r="CR14" s="51"/>
+      <c r="CS14" s="51"/>
+      <c r="CT14" s="51"/>
+      <c r="CU14" s="51"/>
+      <c r="CV14" s="51"/>
+      <c r="CW14" s="51"/>
+      <c r="CX14" s="51"/>
+      <c r="CY14" s="51"/>
+      <c r="CZ14" s="51"/>
+      <c r="DA14" s="51"/>
+      <c r="DB14" s="51"/>
+      <c r="DC14" s="51"/>
+      <c r="DD14" s="51"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56"/>
@@ -11506,7 +11493,7 @@
       <c r="A1" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="58" t="s">
@@ -11548,7 +11535,7 @@
     </row>
     <row r="3">
       <c r="A3" s="59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
@@ -11556,7 +11543,7 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B4" s="60"/>
       <c r="C4" s="61"/>
@@ -11564,7 +11551,7 @@
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="62" t="s">
@@ -11574,7 +11561,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -13035,10 +13022,10 @@
       <c r="A1" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>269</v>
       </c>
       <c r="D1" s="58" t="s">
@@ -13051,10 +13038,10 @@
         <v>275</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
@@ -13091,7 +13078,7 @@
     </row>
     <row r="3">
       <c r="A3" s="59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
@@ -13103,7 +13090,7 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B4" s="60"/>
       <c r="C4" s="61"/>
@@ -13115,23 +13102,23 @@
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
       <c r="H5" s="62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -15667,25 +15654,25 @@
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" s="39"/>
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B4" s="39"/>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B5" s="39"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B6" s="42"/>
     </row>

--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -15,7 +15,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="69vxG9xKPjbBhYeBv8ozN6v8uPJgIrg04olIfPAkA00="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="8f2e8t54AzOQd7Syc7WSxk3fVuPg0eH4eD9ooouii+E="/>
     </ext>
   </extLst>
 </workbook>
@@ -36,46 +36,17 @@
 _Attribuée à Jean-Marc LAFARGE_</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D94">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAwxs45IE
-Nicolas HUC    (2023-05-11 13:41:02)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA2EAzX6c
-Jean-Marc LAFARGE    (2023-08-01 09:57:49)
-Calculé, au changement de phase, il est mis à O, permet de lancer la levée de l'observation @nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_
-------
-ID#AAAA2EGr_3E
-Nicolas HUC    (2023-08-01 13:30:10)
-Donc vide au départ ?
-@jean-marc.lafarge-ext@apave.com
-_Réattribué à Jean-Marc LAFARGE_
-------
-ID#AAAA2ldrgcU
-Jean-Marc LAFARGE    (2023-08-02 06:07:53)
-oui NULL, j'ai mis à jour le JDD
-------
-ID#AAAA2ldrgcY
-Jean-Marc LAFARGE    (2023-08-02 06:08:11)
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_</t>
-      </text>
-    </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miJl1Tg2HY9HAIQ9yW51vCPGUCU3Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhOEi9ZIIZAcWuyqh1GiBryOmjZXQ=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="396">
   <si>
     <t>Date</t>
   </si>
@@ -964,9 +935,48 @@
     <t>Statut de levée des observations du contrôle réglementaire</t>
   </si>
   <si>
-    <t>Calculé
-Vide par défaut.
-Calculé par le traitement de changement de phase (O permet de lancer la levée de l'observation)</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">Calculé
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Vide </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">par défaut.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">O: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>Calculé par le traitement de changement de phase (O permet de lancer la levée de l'observation)</t>
+    </r>
   </si>
   <si>
     <t>ID_NUMMOTLIG</t>
@@ -1190,13 +1200,10 @@
     <t>ID_NUMEQU*EQU*ST_CODCOU</t>
   </si>
   <si>
-    <t>INTERNALVALUE</t>
-  </si>
-  <si>
-    <t>CRITICITE</t>
-  </si>
-  <si>
-    <t>TYPENJEU</t>
+    <t>ID_NUMCRI*CRI*ST_DES</t>
+  </si>
+  <si>
+    <t>ID_TYPENJ*TYPENJ*ST_DES</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -1278,9 +1285,6 @@
   </si>
   <si>
     <t>CRITICITE01</t>
-  </si>
-  <si>
-    <t>$null</t>
   </si>
   <si>
     <t>NSV.TR.BTR.001.CRE.01</t>
@@ -7063,8 +7067,8 @@
       <c r="BS3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BT3" s="39" t="s">
-        <v>9</v>
+      <c r="BT3" s="41" t="s">
+        <v>297</v>
       </c>
       <c r="BU3" s="39" t="s">
         <v>9</v>
@@ -7144,8 +7148,8 @@
       <c r="CT3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="CU3" s="39" t="s">
-        <v>9</v>
+      <c r="CU3" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="CV3" s="39" t="s">
         <v>9</v>
@@ -7176,129 +7180,337 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="39"/>
+      <c r="A4" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="D4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>9</v>
+      </c>
       <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39"/>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
+      <c r="O4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD4" s="39" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="39" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="39" t="s">
         <v>9</v>
       </c>
@@ -7315,7 +7527,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>9</v>
@@ -7329,7 +7541,9 @@
       <c r="M5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="N5" s="39" t="s">
+        <v>9</v>
+      </c>
       <c r="O5" s="39" t="s">
         <v>9</v>
       </c>
@@ -7343,7 +7557,7 @@
         <v>9</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="T5" s="39" t="s">
         <v>9</v>
@@ -7364,7 +7578,7 @@
         <v>9</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="AA5" s="39" t="s">
         <v>9</v>
@@ -7373,7 +7587,7 @@
         <v>9</v>
       </c>
       <c r="AC5" s="39" t="s">
-        <v>9</v>
+        <v>303</v>
       </c>
       <c r="AD5" s="39" t="s">
         <v>9</v>
@@ -7472,7 +7686,7 @@
         <v>9</v>
       </c>
       <c r="BJ5" s="39" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="BK5" s="39" t="s">
         <v>9</v>
@@ -7614,889 +7828,875 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="BK6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="CZ6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="DA6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="DB6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="DC6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="DD6" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="42" t="s">
+      <c r="B6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD6" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="X7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="CZ7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="DA7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="DB7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="DC7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="DD7" s="42" t="s">
-        <v>9</v>
+      <c r="B7" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z7" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA7" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="AB7" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="48">
+        <v>43831.0</v>
+      </c>
+      <c r="AE7" s="49">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="AF7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH7" s="48">
+        <v>43832.0</v>
+      </c>
+      <c r="AI7" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AM7" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AN7" s="19">
+        <v>500.0</v>
+      </c>
+      <c r="AO7" s="19">
+        <v>500.0</v>
+      </c>
+      <c r="AP7" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AQ7" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AR7" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AS7" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AT7" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AU7" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AV7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW7" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX7" s="48">
+        <v>43832.0</v>
+      </c>
+      <c r="AY7" s="49">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AZ7" s="48">
+        <v>43832.0</v>
+      </c>
+      <c r="BA7" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="BB7" s="48">
+        <v>43832.0</v>
+      </c>
+      <c r="BC7" s="49">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="BD7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG7" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ7" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BK7" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM7" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN7" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="BO7" s="48">
+        <v>43832.0</v>
+      </c>
+      <c r="BP7" s="49">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BQ7" s="48">
+        <v>43832.0</v>
+      </c>
+      <c r="BR7" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="BS7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BT7" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="BU7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BV7" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BW7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BX7" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="BY7" s="48">
+        <v>43831.0</v>
+      </c>
+      <c r="BZ7" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="CA7" s="48">
+        <v>43832.0</v>
+      </c>
+      <c r="CB7" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="CC7" s="48">
+        <v>43832.0</v>
+      </c>
+      <c r="CD7" s="49">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="CE7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="CF7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="CG7" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CH7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="CI7" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="CJ7" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK7" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="CL7" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CM7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="CO7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="CP7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="CQ7" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CR7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="CS7" s="53"/>
+      <c r="CT7" s="51"/>
+      <c r="CU7" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="CV7" s="51"/>
+      <c r="CW7" s="51"/>
+      <c r="CX7" s="51"/>
+      <c r="CY7" s="51"/>
+      <c r="CZ7" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="DA7" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="DB7" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="DC7" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="DD7" s="52" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>308</v>
-      </c>
       <c r="C8" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>310</v>
-      </c>
       <c r="E8" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="19">
         <v>1.0</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="K8" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="R8" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="N8" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>317</v>
-      </c>
       <c r="S8" s="47" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U8" s="47" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z8" s="47" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="AA8" s="44">
         <v>1.0</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AC8" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AD8" s="48">
-        <v>43831.0</v>
+        <v>44197.0</v>
       </c>
       <c r="AE8" s="49">
-        <v>0.3541666666666667</v>
+        <v>0.3993055555555556</v>
       </c>
       <c r="AF8" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AH8" s="48">
-        <v>43832.0</v>
+        <v>44206.0</v>
       </c>
       <c r="AI8" s="50">
         <v>0.0</v>
       </c>
       <c r="AJ8" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AK8" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AL8" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AM8" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AN8" s="19">
         <v>1000.0</v>
       </c>
-      <c r="AM8" s="19">
+      <c r="AO8" s="19">
         <v>1000.0</v>
       </c>
-      <c r="AN8" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="AO8" s="19">
-        <v>500.0</v>
-      </c>
       <c r="AP8" s="19">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AQ8" s="19">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AR8" s="19">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AS8" s="19">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AT8" s="19">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AU8" s="19">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="AX8" s="48">
-        <v>43832.0</v>
+        <v>44206.0</v>
       </c>
       <c r="AY8" s="49">
-        <v>0.3333333333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="AZ8" s="48">
-        <v>43832.0</v>
+        <v>44206.0</v>
       </c>
       <c r="BA8" s="49">
-        <v>0.375</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="BB8" s="48">
-        <v>43832.0</v>
+        <v>44206.0</v>
       </c>
       <c r="BC8" s="49">
-        <v>0.3645833333333333</v>
+        <v>0.40625</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BE8" s="51"/>
       <c r="BF8" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG8" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH8" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI8" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ8" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="BG8" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH8" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BI8" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BJ8" s="19" t="s">
+      <c r="BK8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL8" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN8" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="BK8" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BL8" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM8" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BN8" s="46" t="s">
-        <v>325</v>
-      </c>
       <c r="BO8" s="48">
-        <v>43832.0</v>
+        <v>44206.0</v>
       </c>
       <c r="BP8" s="49">
-        <v>0.3333333333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="BQ8" s="48">
-        <v>43832.0</v>
+        <v>44206.0</v>
       </c>
       <c r="BR8" s="49">
-        <v>0.375</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="BS8" s="19">
         <v>1.0</v>
       </c>
       <c r="BT8" s="19" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="BU8" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BV8" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="BW8" s="19" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="BX8" s="47" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="BY8" s="48">
-        <v>43831.0</v>
+        <v>44197.0</v>
       </c>
       <c r="BZ8" s="49">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="CA8" s="48">
         <v>43832.0</v>
@@ -8511,304 +8711,304 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="CL8" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CM8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CN8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CO8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CP8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="CR8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CS8" s="53"/>
       <c r="CT8" s="51"/>
       <c r="CU8" s="54" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="CV8" s="51"/>
       <c r="CW8" s="51"/>
       <c r="CX8" s="51"/>
       <c r="CY8" s="51"/>
       <c r="CZ8" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA8" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="DB8" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="DC8" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="DD8" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F9" s="19">
         <v>1.0</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="R9" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="I9" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>317</v>
-      </c>
       <c r="S9" s="47" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U9" s="47" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z9" s="47" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="AA9" s="44">
         <v>1.0</v>
       </c>
       <c r="AB9" s="47" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="AC9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AD9" s="48">
-        <v>44197.0</v>
+        <v>44562.0</v>
       </c>
       <c r="AE9" s="49">
-        <v>0.3993055555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AF9" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="AH9" s="48">
-        <v>44206.0</v>
+        <v>44592.0</v>
       </c>
       <c r="AI9" s="50">
         <v>0.0</v>
       </c>
       <c r="AJ9" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK9" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AL9" s="19">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AM9" s="19">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AN9" s="19">
-        <v>1000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="AO9" s="19">
-        <v>1000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="AP9" s="19">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AQ9" s="19">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AR9" s="19">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AS9" s="19">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AT9" s="19">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AU9" s="19">
-        <v>2000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="AX9" s="48">
-        <v>44206.0</v>
+        <v>44592.0</v>
       </c>
       <c r="AY9" s="49">
-        <v>0.3958333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="AZ9" s="48">
-        <v>44206.0</v>
+        <v>44592.0</v>
       </c>
       <c r="BA9" s="49">
-        <v>0.4791666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BB9" s="48">
-        <v>44206.0</v>
+        <v>44592.0</v>
       </c>
       <c r="BC9" s="49">
-        <v>0.40625</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BE9" s="51"/>
       <c r="BF9" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG9" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH9" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI9" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ9" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="BG9" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH9" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BI9" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BJ9" s="19" t="s">
+      <c r="BK9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL9" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN9" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="BK9" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BL9" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM9" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BN9" s="46" t="s">
-        <v>325</v>
-      </c>
       <c r="BO9" s="48">
-        <v>44206.0</v>
+        <v>44592.0</v>
       </c>
       <c r="BP9" s="49">
-        <v>0.3958333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="BQ9" s="48">
-        <v>44206.0</v>
+        <v>44592.0</v>
       </c>
       <c r="BR9" s="49">
-        <v>0.4791666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BS9" s="19">
         <v>1.0</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="BU9" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="BV9" s="19" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="BW9" s="19" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="BX9" s="47" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="BY9" s="48">
-        <v>44197.0</v>
+        <v>44562.0</v>
       </c>
       <c r="BZ9" s="49">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="CA9" s="48">
         <v>43832.0</v>
@@ -8823,304 +9023,304 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="CJ9" s="19" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="CK9" s="19" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="CL9" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CM9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CN9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CO9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CP9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CQ9" s="19" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="CR9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CS9" s="53"/>
       <c r="CT9" s="51"/>
       <c r="CU9" s="54" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="CV9" s="51"/>
       <c r="CW9" s="51"/>
       <c r="CX9" s="51"/>
       <c r="CY9" s="51"/>
       <c r="CZ9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA9" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="DB9" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="DC9" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="DD9" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>308</v>
+        <v>363</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1000.0</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1000.0</v>
       </c>
       <c r="F10" s="19">
         <v>1.0</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>350</v>
+        <v>310</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>365</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="M10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N10" s="46">
+        <v>1000.0</v>
+      </c>
+      <c r="O10" s="46">
+        <v>2000.0</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="R10" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="N10" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="O10" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>317</v>
-      </c>
       <c r="S10" s="47" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U10" s="47" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="W10" s="19" t="s">
-        <v>356</v>
+        <v>315</v>
+      </c>
+      <c r="W10" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z10" s="47" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AA10" s="44">
         <v>1.0</v>
       </c>
       <c r="AB10" s="47" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AC10" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AD10" s="48">
-        <v>44562.0</v>
+        <v>44927.0</v>
       </c>
       <c r="AE10" s="49">
-        <v>0.4444444444444444</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="AF10" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AH10" s="48">
-        <v>44592.0</v>
+        <v>44958.0</v>
       </c>
       <c r="AI10" s="50">
         <v>0.0</v>
       </c>
       <c r="AJ10" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AK10" s="19">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AL10" s="19">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AM10" s="19">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AN10" s="19">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AO10" s="19">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AP10" s="19">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AQ10" s="19">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AR10" s="19">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AS10" s="19">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AT10" s="19">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AU10" s="19">
-        <v>3000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AX10" s="48">
-        <v>44592.0</v>
+        <v>44958.0</v>
       </c>
       <c r="AY10" s="49">
-        <v>0.5416666666666666</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="AZ10" s="48">
-        <v>44592.0</v>
+        <v>44958.0</v>
       </c>
       <c r="BA10" s="49">
-        <v>0.6666666666666666</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="BB10" s="48">
-        <v>44592.0</v>
+        <v>44958.0</v>
       </c>
       <c r="BC10" s="49">
-        <v>0.5729166666666666</v>
+        <v>0.6145833333333334</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BE10" s="51"/>
       <c r="BF10" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG10" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ10" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="BG10" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BI10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BJ10" s="19" t="s">
+      <c r="BK10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN10" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="BK10" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BL10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM10" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BN10" s="46" t="s">
-        <v>325</v>
-      </c>
       <c r="BO10" s="48">
-        <v>44592.0</v>
+        <v>44958.0</v>
       </c>
       <c r="BP10" s="49">
-        <v>0.5416666666666666</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="BQ10" s="48">
-        <v>44592.0</v>
+        <v>44958.0</v>
       </c>
       <c r="BR10" s="49">
-        <v>0.6666666666666666</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="BS10" s="19">
         <v>1.0</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="BU10" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="BV10" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="BW10" s="19" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="BX10" s="47" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="BY10" s="48">
-        <v>44562.0</v>
+        <v>44927.0</v>
       </c>
       <c r="BZ10" s="49">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="CA10" s="48">
         <v>43832.0</v>
@@ -9135,304 +9335,304 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CG10" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CI10" s="19" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="CJ10" s="19" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="CL10" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CM10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CN10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CO10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CP10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="CR10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CS10" s="53"/>
       <c r="CT10" s="51"/>
       <c r="CU10" s="54" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="CV10" s="51"/>
       <c r="CW10" s="51"/>
       <c r="CX10" s="51"/>
       <c r="CY10" s="51"/>
       <c r="CZ10" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA10" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="DB10" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="DC10" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="DD10" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B11" s="55">
-        <v>1000.0</v>
+        <v>1001.0</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="44">
-        <v>1000.0</v>
+        <v>1001.0</v>
       </c>
       <c r="F11" s="19">
         <v>1.0</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="M11" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N11" s="46">
+        <v>1001.0</v>
+      </c>
+      <c r="O11" s="46">
+        <v>2001.0</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="R11" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="N11" s="46">
-        <v>1000.0</v>
-      </c>
-      <c r="O11" s="46">
-        <v>2000.0</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>317</v>
-      </c>
       <c r="S11" s="47" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U11" s="47" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W11" s="47" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z11" s="47" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AA11" s="44">
         <v>1.0</v>
       </c>
       <c r="AB11" s="47" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AC11" s="44" t="s">
         <v>23</v>
       </c>
       <c r="AD11" s="48">
-        <v>44927.0</v>
+        <v>43831.0</v>
       </c>
       <c r="AE11" s="49">
-        <v>0.4895833333333333</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="AF11" s="19">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AH11" s="48">
-        <v>44958.0</v>
+        <v>43831.0</v>
       </c>
       <c r="AI11" s="50">
         <v>0.0</v>
       </c>
       <c r="AJ11" s="19">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AK11" s="19">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AL11" s="19">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AM11" s="19">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AN11" s="19">
-        <v>2000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="AO11" s="19">
-        <v>2000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="AP11" s="19">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AQ11" s="19">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AR11" s="19">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AS11" s="19">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AT11" s="19">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AU11" s="19">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AX11" s="48">
-        <v>44958.0</v>
+        <v>43831.0</v>
       </c>
       <c r="AY11" s="49">
-        <v>0.6041666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="AZ11" s="48">
-        <v>44958.0</v>
+        <v>43831.0</v>
       </c>
       <c r="BA11" s="49">
-        <v>0.7708333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="BB11" s="48">
-        <v>44958.0</v>
+        <v>43831.0</v>
       </c>
       <c r="BC11" s="49">
-        <v>0.6145833333333334</v>
+        <v>0.40625</v>
       </c>
       <c r="BD11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BE11" s="51"/>
       <c r="BF11" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG11" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH11" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BI11" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ11" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="BG11" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH11" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BI11" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BJ11" s="19" t="s">
+      <c r="BK11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL11" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN11" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="BK11" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BL11" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM11" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BN11" s="46" t="s">
-        <v>325</v>
-      </c>
       <c r="BO11" s="48">
-        <v>44958.0</v>
+        <v>43831.0</v>
       </c>
       <c r="BP11" s="49">
-        <v>0.6041666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="BQ11" s="48">
-        <v>44958.0</v>
+        <v>43831.0</v>
       </c>
       <c r="BR11" s="49">
-        <v>0.7708333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="BS11" s="19">
         <v>1.0</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="BU11" s="19">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="BV11" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BW11" s="19" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="BX11" s="47" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="BY11" s="48">
-        <v>44927.0</v>
+        <v>43831.0</v>
       </c>
       <c r="BZ11" s="49">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="CA11" s="48">
         <v>43832.0</v>
@@ -9447,390 +9647,192 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="CL11" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CM11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CN11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CO11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CP11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CQ11" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CR11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="CS11" s="53"/>
       <c r="CT11" s="51"/>
       <c r="CU11" s="54" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="CV11" s="51"/>
       <c r="CW11" s="51"/>
       <c r="CX11" s="51"/>
       <c r="CY11" s="51"/>
       <c r="CZ11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA11" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="DB11" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="DC11" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="DD11" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="43" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B12" s="55">
-        <v>1001.0</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E12" s="44">
-        <v>1001.0</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="N12" s="46">
-        <v>1001.0</v>
-      </c>
-      <c r="O12" s="46">
-        <v>2001.0</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="S12" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="U12" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="W12" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z12" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA12" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="AB12" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="AC12" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="48">
-        <v>43831.0</v>
-      </c>
-      <c r="AE12" s="49">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="AF12" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="AH12" s="48">
-        <v>43831.0</v>
-      </c>
-      <c r="AI12" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="AJ12" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="AK12" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="AL12" s="19">
-        <v>5000.0</v>
-      </c>
-      <c r="AM12" s="19">
-        <v>5000.0</v>
-      </c>
-      <c r="AN12" s="19">
-        <v>2500.0</v>
-      </c>
-      <c r="AO12" s="19">
-        <v>2500.0</v>
-      </c>
-      <c r="AP12" s="19">
-        <v>5000.0</v>
-      </c>
-      <c r="AQ12" s="19">
-        <v>5000.0</v>
-      </c>
-      <c r="AR12" s="19">
-        <v>5000.0</v>
-      </c>
-      <c r="AS12" s="19">
-        <v>5000.0</v>
-      </c>
-      <c r="AT12" s="19">
-        <v>5000.0</v>
-      </c>
-      <c r="AU12" s="19">
-        <v>5000.0</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW12" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="AX12" s="48">
-        <v>43831.0</v>
-      </c>
-      <c r="AY12" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="AZ12" s="48">
-        <v>43831.0</v>
-      </c>
-      <c r="BA12" s="49">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="BB12" s="48">
-        <v>43831.0</v>
-      </c>
-      <c r="BC12" s="49">
-        <v>0.40625</v>
-      </c>
-      <c r="BD12" s="19" t="s">
-        <v>316</v>
-      </c>
+        <v>1002.0</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
       <c r="BE12" s="51"/>
-      <c r="BF12" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="BG12" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="BH12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BI12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BJ12" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BK12" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BL12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM12" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="BN12" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="BO12" s="48">
-        <v>43831.0</v>
-      </c>
-      <c r="BP12" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="BQ12" s="48">
-        <v>43831.0</v>
-      </c>
-      <c r="BR12" s="49">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="BS12" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BT12" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="BU12" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="BV12" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="BW12" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="BX12" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="BY12" s="48">
-        <v>43831.0</v>
-      </c>
-      <c r="BZ12" s="49">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="CA12" s="48">
-        <v>43832.0</v>
-      </c>
-      <c r="CB12" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="CC12" s="48">
-        <v>43832.0</v>
-      </c>
-      <c r="CD12" s="49">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="CE12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="CF12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="CG12" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="CH12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="CI12" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="CJ12" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="CK12" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="CL12" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="CM12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="CN12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="CO12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="CP12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="CQ12" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="CR12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="CS12" s="53"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="51"/>
+      <c r="BP12" s="51"/>
+      <c r="BQ12" s="51"/>
+      <c r="BR12" s="51"/>
+      <c r="BS12" s="51"/>
+      <c r="BT12" s="51"/>
+      <c r="BU12" s="51"/>
+      <c r="BV12" s="51"/>
+      <c r="BW12" s="51"/>
+      <c r="BX12" s="51"/>
+      <c r="BY12" s="51"/>
+      <c r="BZ12" s="51"/>
+      <c r="CA12" s="51"/>
+      <c r="CB12" s="51"/>
+      <c r="CC12" s="51"/>
+      <c r="CD12" s="51"/>
+      <c r="CE12" s="51"/>
+      <c r="CF12" s="51"/>
+      <c r="CG12" s="51"/>
+      <c r="CH12" s="51"/>
+      <c r="CI12" s="51"/>
+      <c r="CJ12" s="51"/>
+      <c r="CK12" s="51"/>
+      <c r="CL12" s="51"/>
+      <c r="CM12" s="51"/>
+      <c r="CN12" s="51"/>
+      <c r="CO12" s="51"/>
+      <c r="CP12" s="51"/>
+      <c r="CQ12" s="51"/>
+      <c r="CR12" s="51"/>
+      <c r="CS12" s="51"/>
       <c r="CT12" s="51"/>
-      <c r="CU12" s="54" t="s">
-        <v>364</v>
-      </c>
+      <c r="CU12" s="51"/>
       <c r="CV12" s="51"/>
       <c r="CW12" s="51"/>
       <c r="CX12" s="51"/>
       <c r="CY12" s="51"/>
-      <c r="CZ12" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="DA12" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="DB12" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="DC12" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="DD12" s="52" t="s">
-        <v>323</v>
-      </c>
+      <c r="CZ12" s="51"/>
+      <c r="DA12" s="51"/>
+      <c r="DB12" s="51"/>
+      <c r="DC12" s="51"/>
+      <c r="DD12" s="51"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B13" s="55">
-        <v>1002.0</v>
+        <v>1003.0</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
@@ -9940,118 +9942,7 @@
       <c r="DD13" s="51"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="B14" s="55">
-        <v>1003.0</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51"/>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="51"/>
-      <c r="BL14" s="51"/>
-      <c r="BM14" s="51"/>
-      <c r="BN14" s="51"/>
-      <c r="BO14" s="51"/>
-      <c r="BP14" s="51"/>
-      <c r="BQ14" s="51"/>
-      <c r="BR14" s="51"/>
-      <c r="BS14" s="51"/>
-      <c r="BT14" s="51"/>
-      <c r="BU14" s="51"/>
-      <c r="BV14" s="51"/>
-      <c r="BW14" s="51"/>
-      <c r="BX14" s="51"/>
-      <c r="BY14" s="51"/>
-      <c r="BZ14" s="51"/>
-      <c r="CA14" s="51"/>
-      <c r="CB14" s="51"/>
-      <c r="CC14" s="51"/>
-      <c r="CD14" s="51"/>
-      <c r="CE14" s="51"/>
-      <c r="CF14" s="51"/>
-      <c r="CG14" s="51"/>
-      <c r="CH14" s="51"/>
-      <c r="CI14" s="51"/>
-      <c r="CJ14" s="51"/>
-      <c r="CK14" s="51"/>
-      <c r="CL14" s="51"/>
-      <c r="CM14" s="51"/>
-      <c r="CN14" s="51"/>
-      <c r="CO14" s="51"/>
-      <c r="CP14" s="51"/>
-      <c r="CQ14" s="51"/>
-      <c r="CR14" s="51"/>
-      <c r="CS14" s="51"/>
-      <c r="CT14" s="51"/>
-      <c r="CU14" s="51"/>
-      <c r="CV14" s="51"/>
-      <c r="CW14" s="51"/>
-      <c r="CX14" s="51"/>
-      <c r="CY14" s="51"/>
-      <c r="CZ14" s="51"/>
-      <c r="DA14" s="51"/>
-      <c r="DB14" s="51"/>
-      <c r="DC14" s="51"/>
-      <c r="DD14" s="51"/>
+      <c r="A14" s="56"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56"/>
@@ -10677,9 +10568,7 @@
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="56"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="56"/>
-    </row>
+    <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
@@ -11459,7 +11348,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -11543,7 +11431,7 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="60"/>
       <c r="C4" s="61"/>
@@ -11551,17 +11439,17 @@
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="62" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D5" s="61"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -13068,7 +12956,7 @@
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="62" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
@@ -13090,7 +12978,7 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="60"/>
       <c r="C4" s="61"/>
@@ -13102,23 +12990,23 @@
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
       <c r="H5" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
@@ -14579,13 +14467,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>394</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -15619,7 +15507,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="37"/>
       <c r="B1" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -15660,19 +15548,19 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="39"/>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" s="39"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="42"/>
     </row>

--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -926,7 +926,7 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">Vide </t>
+      <t xml:space="preserve">NULL </t>
     </r>
     <r>
       <rPr>
@@ -4881,7 +4881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="93.0" customHeight="1">
       <c r="A94" s="18" t="s">
         <v>226</v>
       </c>

--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -9,20 +9,21 @@
     <sheet state="visible" name="001A" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="001B" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="IHMTO" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="MODELE" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="INTERNALVALUE" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="MODELE" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="qCM8VelFXQAFQ//80t2BtOaWE9+jdTOFlHdaN45wMIg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="N02ZknsrpivBcfQWpVMzGDq81AgFyoeDtgfrPC44n/k="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="428">
   <si>
     <t>Date</t>
   </si>
@@ -1314,6 +1315,18 @@
     <t>EMP_ID</t>
   </si>
   <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>BT.NU_POSDEL</t>
+  </si>
+  <si>
+    <t>BT.ST_STA</t>
+  </si>
+  <si>
+    <t>BT.NU_PRECLO</t>
+  </si>
+  <si>
     <t>LOCATOR</t>
   </si>
   <si>
@@ -1380,6 +1393,9 @@
     <t>$DATETIMESYS</t>
   </si>
   <si>
+    <t>$VIDE</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -1585,6 +1601,9 @@
   </si>
   <si>
     <t>MP.CPT*001*ID_CODCOM</t>
+  </si>
+  <si>
+    <t>RELEVE_BT.ST_TYP</t>
   </si>
   <si>
     <t>TAB</t>
@@ -1620,6 +1639,78 @@
       </rPr>
       <t xml:space="preserve"> instead of the value of the mentioned field name.</t>
     </r>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>VALEUR INTERNE</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>Immédiat</t>
+  </si>
+  <si>
+    <t>sous 8 jours</t>
+  </si>
+  <si>
+    <t>sous 1 mois</t>
+  </si>
+  <si>
+    <t>La précloture n'a pas été faite</t>
+  </si>
+  <si>
+    <t>précloture a été faite mais pas de traitement supplémentaire</t>
+  </si>
+  <si>
+    <t>précloture a été faite et mis à jour le compteur COM</t>
+  </si>
+  <si>
+    <t>précloture a été faite et mis à jour l'échéance ECH</t>
+  </si>
+  <si>
+    <t>1 et 2</t>
+  </si>
+  <si>
+    <t>précloture a été faite et création dune échéance de facture (version future bleuet ?)</t>
+  </si>
+  <si>
+    <t>4 et 1</t>
+  </si>
+  <si>
+    <t>4 et 2</t>
+  </si>
+  <si>
+    <t>4 et 1 et 2</t>
+  </si>
+  <si>
+    <t>hors préventif (quand BT pas créé par centre de contrôle)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>induit (tous ceux qui ne sont pas M sont induits)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Maitre (1 par numéro de BT)</t>
+  </si>
+  <si>
+    <t>EQU</t>
+  </si>
+  <si>
+    <t>Relevé sur équipement</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Relevé sur matricule</t>
   </si>
   <si>
     <t>Champ</t>
@@ -1894,7 +1985,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2082,6 +2173,24 @@
     </xf>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="16" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2115,6 +2224,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6294,7 +6407,7 @@
     <col customWidth="1" min="71" max="71" width="11.38"/>
     <col customWidth="1" min="72" max="72" width="11.0"/>
     <col customWidth="1" min="73" max="73" width="9.25"/>
-    <col customWidth="1" min="75" max="75" width="21.38"/>
+    <col customWidth="1" min="75" max="75" width="22.88"/>
     <col customWidth="1" min="76" max="76" width="24.13"/>
     <col customWidth="1" min="77" max="77" width="14.13"/>
     <col customWidth="1" min="78" max="78" width="14.5"/>
@@ -7612,1201 +7725,1007 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="40" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="J5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="40" t="s">
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="40"/>
+      <c r="BB5" s="40"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="40"/>
+      <c r="BH5" s="40"/>
+      <c r="BI5" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="AD5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ5" s="40" t="s">
+      <c r="BJ5" s="40"/>
+      <c r="BK5" s="40"/>
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="40"/>
+      <c r="BN5" s="40"/>
+      <c r="BO5" s="40"/>
+      <c r="BP5" s="40"/>
+      <c r="BQ5" s="40"/>
+      <c r="BR5" s="40"/>
+      <c r="BS5" s="40"/>
+      <c r="BT5" s="40"/>
+      <c r="BU5" s="40"/>
+      <c r="BV5" s="40"/>
+      <c r="BW5" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="BK5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="CZ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="DA5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="DB5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="DC5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="DD5" s="40" t="s">
-        <v>9</v>
-      </c>
+      <c r="BX5" s="40"/>
+      <c r="BY5" s="40"/>
+      <c r="BZ5" s="40"/>
+      <c r="CA5" s="40"/>
+      <c r="CB5" s="40"/>
+      <c r="CC5" s="40"/>
+      <c r="CD5" s="40"/>
+      <c r="CE5" s="40"/>
+      <c r="CF5" s="40"/>
+      <c r="CG5" s="40"/>
+      <c r="CH5" s="40"/>
+      <c r="CI5" s="40"/>
+      <c r="CJ5" s="40"/>
+      <c r="CK5" s="40"/>
+      <c r="CL5" s="40"/>
+      <c r="CM5" s="40"/>
+      <c r="CN5" s="40"/>
+      <c r="CO5" s="40"/>
+      <c r="CP5" s="40"/>
+      <c r="CQ5" s="40"/>
+      <c r="CR5" s="40"/>
+      <c r="CS5" s="40"/>
+      <c r="CT5" s="40"/>
+      <c r="CU5" s="40"/>
+      <c r="CV5" s="40"/>
+      <c r="CW5" s="40"/>
+      <c r="CX5" s="40"/>
+      <c r="CY5" s="40"/>
+      <c r="CZ5" s="40"/>
+      <c r="DA5" s="40"/>
+      <c r="DB5" s="40"/>
+      <c r="DC5" s="40"/>
+      <c r="DD5" s="40"/>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="CZ6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="DA6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="DB6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="DC6" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="DD6" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="B6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="J6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="AD6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="BK6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD6" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="S7" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="U7" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="W7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z7" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA7" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="AB7" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC7" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="49">
-        <v>43831.0</v>
-      </c>
-      <c r="AE7" s="50">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="AF7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="AH7" s="49">
-        <v>43832.0</v>
-      </c>
-      <c r="AI7" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="AJ7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="AK7" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="AL7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AM7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AN7" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="AO7" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="AP7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AQ7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AR7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AS7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AT7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AU7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AV7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW7" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="AX7" s="49">
-        <v>43832.0</v>
-      </c>
-      <c r="AY7" s="50">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AZ7" s="49">
-        <v>43832.0</v>
-      </c>
-      <c r="BA7" s="50">
-        <v>0.375</v>
-      </c>
-      <c r="BB7" s="49">
-        <v>43832.0</v>
-      </c>
-      <c r="BC7" s="50">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="BD7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG7" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="BH7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="BI7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="BJ7" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="BK7" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="BL7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="BM7" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN7" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="BO7" s="49">
-        <v>43832.0</v>
-      </c>
-      <c r="BP7" s="50">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="BQ7" s="49">
-        <v>43832.0</v>
-      </c>
-      <c r="BR7" s="50">
-        <v>0.375</v>
-      </c>
-      <c r="BS7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BT7" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="BU7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BV7" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="BW7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="BX7" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="BY7" s="49">
-        <v>43831.0</v>
-      </c>
-      <c r="BZ7" s="50">
-        <v>0.375</v>
-      </c>
-      <c r="CA7" s="49">
-        <v>43832.0</v>
-      </c>
-      <c r="CB7" s="50">
-        <v>0.375</v>
-      </c>
-      <c r="CC7" s="49">
-        <v>43832.0</v>
-      </c>
-      <c r="CD7" s="50">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="CE7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CF7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CG7" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CH7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CI7" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="CJ7" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="CK7" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="CL7" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CM7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CN7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CO7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CP7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CQ7" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CR7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CS7" s="54"/>
-      <c r="CT7" s="52"/>
-      <c r="CU7" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="CV7" s="52"/>
-      <c r="CW7" s="52"/>
-      <c r="CX7" s="52"/>
-      <c r="CY7" s="52"/>
-      <c r="CZ7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="DA7" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="DB7" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="DC7" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="DD7" s="53" t="s">
-        <v>324</v>
+      <c r="B7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD7" s="43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="44" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F8" s="19">
         <v>1.0</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>317</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N8" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O8" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="R8" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="S8" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="U8" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="S8" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="U8" s="48" t="s">
-        <v>335</v>
-      </c>
       <c r="V8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Z8" s="48" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="AA8" s="45">
         <v>1.0</v>
       </c>
       <c r="AB8" s="48" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="AC8" s="45" t="s">
         <v>23</v>
       </c>
       <c r="AD8" s="49">
-        <v>44197.0</v>
+        <v>43831.0</v>
       </c>
       <c r="AE8" s="50">
-        <v>0.3993055555555556</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="AF8" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="AH8" s="49">
-        <v>44206.0</v>
+        <v>43832.0</v>
       </c>
       <c r="AI8" s="51">
         <v>0.0</v>
       </c>
       <c r="AJ8" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AK8" s="19">
         <v>2.0</v>
       </c>
-      <c r="AK8" s="19">
-        <v>3.0</v>
-      </c>
       <c r="AL8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AM8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AN8" s="19">
+        <v>500.0</v>
+      </c>
+      <c r="AO8" s="19">
+        <v>500.0</v>
+      </c>
+      <c r="AP8" s="19">
         <v>1000.0</v>
       </c>
-      <c r="AO8" s="19">
+      <c r="AQ8" s="19">
         <v>1000.0</v>
       </c>
-      <c r="AP8" s="19">
-        <v>2000.0</v>
-      </c>
-      <c r="AQ8" s="19">
-        <v>2000.0</v>
-      </c>
       <c r="AR8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AS8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AT8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AU8" s="19">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="AX8" s="49">
-        <v>44206.0</v>
+        <v>43832.0</v>
       </c>
       <c r="AY8" s="50">
-        <v>0.3958333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AZ8" s="49">
-        <v>44206.0</v>
+        <v>43832.0</v>
       </c>
       <c r="BA8" s="50">
-        <v>0.4791666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="BB8" s="49">
-        <v>44206.0</v>
+        <v>43832.0</v>
       </c>
       <c r="BC8" s="50">
-        <v>0.40625</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BE8" s="52"/>
       <c r="BF8" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="BG8" s="52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BH8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BI8" s="19" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="BJ8" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BL8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BM8" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BN8" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="BO8" s="49">
-        <v>44206.0</v>
+        <v>43832.0</v>
       </c>
       <c r="BP8" s="50">
-        <v>0.3958333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BQ8" s="49">
-        <v>44206.0</v>
+        <v>43832.0</v>
       </c>
       <c r="BR8" s="50">
-        <v>0.4791666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="BS8" s="19">
         <v>1.0</v>
       </c>
       <c r="BT8" s="19" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="BU8" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BV8" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BW8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BX8" s="48" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="BY8" s="49">
-        <v>44197.0</v>
+        <v>43831.0</v>
       </c>
       <c r="BZ8" s="50">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="CA8" s="49">
         <v>43832.0</v>
@@ -8821,304 +8740,304 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="CL8" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="CM8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CN8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CO8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CP8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="CR8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CS8" s="54"/>
       <c r="CT8" s="52"/>
       <c r="CU8" s="55" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="CV8" s="52"/>
       <c r="CW8" s="52"/>
       <c r="CX8" s="52"/>
       <c r="CY8" s="52"/>
       <c r="CZ8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="DA8" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DB8" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DC8" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="DD8" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="44" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F9" s="19">
         <v>1.0</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="S9" s="48" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="U9" s="48" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Z9" s="48" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AA9" s="45">
         <v>1.0</v>
       </c>
       <c r="AB9" s="48" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="AC9" s="45" t="s">
         <v>23</v>
       </c>
       <c r="AD9" s="49">
-        <v>44562.0</v>
+        <v>44197.0</v>
       </c>
       <c r="AE9" s="50">
-        <v>0.4444444444444444</v>
+        <v>0.3993055555555556</v>
       </c>
       <c r="AF9" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="AH9" s="49">
-        <v>44592.0</v>
+        <v>44206.0</v>
       </c>
       <c r="AI9" s="51">
         <v>0.0</v>
       </c>
       <c r="AJ9" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="AK9" s="19">
         <v>3.0</v>
       </c>
-      <c r="AK9" s="19">
-        <v>4.0</v>
-      </c>
       <c r="AL9" s="19">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AM9" s="19">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN9" s="19">
-        <v>1500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AO9" s="19">
-        <v>1500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AP9" s="19">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AQ9" s="19">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AR9" s="19">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AS9" s="19">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AT9" s="19">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AU9" s="19">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AX9" s="49">
-        <v>44592.0</v>
+        <v>44206.0</v>
       </c>
       <c r="AY9" s="50">
-        <v>0.5416666666666666</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="AZ9" s="49">
-        <v>44592.0</v>
+        <v>44206.0</v>
       </c>
       <c r="BA9" s="50">
-        <v>0.6666666666666666</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="BB9" s="49">
-        <v>44592.0</v>
+        <v>44206.0</v>
       </c>
       <c r="BC9" s="50">
-        <v>0.5729166666666666</v>
+        <v>0.40625</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BE9" s="52"/>
       <c r="BF9" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="BG9" s="52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BH9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BI9" s="19" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="BJ9" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BL9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BM9" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BN9" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="BO9" s="49">
-        <v>44592.0</v>
+        <v>44206.0</v>
       </c>
       <c r="BP9" s="50">
-        <v>0.5416666666666666</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="BQ9" s="49">
-        <v>44592.0</v>
+        <v>44206.0</v>
       </c>
       <c r="BR9" s="50">
-        <v>0.6666666666666666</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="BS9" s="19">
         <v>1.0</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="BU9" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BV9" s="19" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="BW9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BX9" s="48" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="BY9" s="49">
-        <v>44562.0</v>
+        <v>44197.0</v>
       </c>
       <c r="BZ9" s="50">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="CA9" s="49">
         <v>43832.0</v>
@@ -9133,304 +9052,304 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="CJ9" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CK9" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CL9" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="CK9" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="CL9" s="19" t="s">
-        <v>325</v>
-      </c>
       <c r="CM9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CN9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CO9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CP9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CQ9" s="19" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="CR9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CS9" s="54"/>
       <c r="CT9" s="52"/>
       <c r="CU9" s="55" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="CV9" s="52"/>
       <c r="CW9" s="52"/>
       <c r="CX9" s="52"/>
       <c r="CY9" s="52"/>
       <c r="CZ9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="DA9" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DB9" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DC9" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="DD9" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="B10" s="56">
-        <v>1000.0</v>
+        <v>353</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>313</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="E10" s="45">
-        <v>1000.0</v>
+        <v>315</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>313</v>
       </c>
       <c r="F10" s="19">
         <v>1.0</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>367</v>
+        <v>316</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N10" s="47">
-        <v>1000.0</v>
-      </c>
-      <c r="O10" s="47">
-        <v>2000.0</v>
+        <v>321</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>313</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="S10" s="48" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="U10" s="48" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="W10" s="48" t="s">
-        <v>372</v>
+        <v>321</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>361</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Z10" s="48" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="AA10" s="45">
         <v>1.0</v>
       </c>
       <c r="AB10" s="48" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="AC10" s="45" t="s">
         <v>23</v>
       </c>
       <c r="AD10" s="49">
-        <v>44927.0</v>
+        <v>44562.0</v>
       </c>
       <c r="AE10" s="50">
-        <v>0.4895833333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AF10" s="19">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AH10" s="49">
-        <v>44958.0</v>
+        <v>44592.0</v>
       </c>
       <c r="AI10" s="51">
         <v>0.0</v>
       </c>
       <c r="AJ10" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="AK10" s="19">
         <v>4.0</v>
       </c>
-      <c r="AK10" s="19">
-        <v>5.0</v>
-      </c>
       <c r="AL10" s="19">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AM10" s="19">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AN10" s="19">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="AO10" s="19">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="AP10" s="19">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AQ10" s="19">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AR10" s="19">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AS10" s="19">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AT10" s="19">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AU10" s="19">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AX10" s="49">
-        <v>44958.0</v>
+        <v>44592.0</v>
       </c>
       <c r="AY10" s="50">
-        <v>0.6041666666666666</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="AZ10" s="49">
-        <v>44958.0</v>
+        <v>44592.0</v>
       </c>
       <c r="BA10" s="50">
-        <v>0.7708333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BB10" s="49">
-        <v>44958.0</v>
+        <v>44592.0</v>
       </c>
       <c r="BC10" s="50">
-        <v>0.6145833333333334</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BE10" s="52"/>
       <c r="BF10" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="BG10" s="52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BH10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BI10" s="19" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="BJ10" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BL10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BM10" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BN10" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="BO10" s="49">
-        <v>44958.0</v>
+        <v>44592.0</v>
       </c>
       <c r="BP10" s="50">
-        <v>0.6041666666666666</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="BQ10" s="49">
-        <v>44958.0</v>
+        <v>44592.0</v>
       </c>
       <c r="BR10" s="50">
-        <v>0.7708333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BS10" s="19">
         <v>1.0</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="BU10" s="19">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="BV10" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BW10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BX10" s="48" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="BY10" s="49">
-        <v>44927.0</v>
+        <v>44562.0</v>
       </c>
       <c r="BZ10" s="50">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="CA10" s="49">
         <v>43832.0</v>
@@ -9445,304 +9364,304 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CG10" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CI10" s="19" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="CJ10" s="19" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="CL10" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="CM10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CN10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CO10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CP10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="CR10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CS10" s="54"/>
       <c r="CT10" s="52"/>
       <c r="CU10" s="55" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="CV10" s="52"/>
       <c r="CW10" s="52"/>
       <c r="CX10" s="52"/>
       <c r="CY10" s="52"/>
       <c r="CZ10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="DA10" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DB10" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DC10" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="DD10" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="44" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B11" s="56">
-        <v>1001.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E11" s="45">
-        <v>1001.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F11" s="19">
         <v>1.0</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H11" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="N11" s="47">
+        <v>1000.0</v>
+      </c>
+      <c r="O11" s="47">
+        <v>2000.0</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="U11" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="W11" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z11" s="48" t="s">
         <v>378</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N11" s="47">
-        <v>1001.0</v>
-      </c>
-      <c r="O11" s="47">
-        <v>2001.0</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="S11" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="U11" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="W11" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z11" s="48" t="s">
-        <v>385</v>
       </c>
       <c r="AA11" s="45">
         <v>1.0</v>
       </c>
       <c r="AB11" s="48" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AC11" s="45" t="s">
         <v>23</v>
       </c>
       <c r="AD11" s="49">
-        <v>43831.0</v>
+        <v>44927.0</v>
       </c>
       <c r="AE11" s="50">
-        <v>0.5347222222222222</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="AF11" s="19">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="AH11" s="49">
-        <v>43831.0</v>
+        <v>44958.0</v>
       </c>
       <c r="AI11" s="51">
         <v>0.0</v>
       </c>
       <c r="AJ11" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AK11" s="19">
         <v>5.0</v>
       </c>
-      <c r="AK11" s="19">
-        <v>6.0</v>
-      </c>
       <c r="AL11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AM11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AN11" s="19">
-        <v>2500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AO11" s="19">
-        <v>2500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AP11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AQ11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AR11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AS11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AT11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AU11" s="19">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AX11" s="49">
-        <v>43831.0</v>
+        <v>44958.0</v>
       </c>
       <c r="AY11" s="50">
-        <v>0.375</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="AZ11" s="49">
-        <v>43831.0</v>
+        <v>44958.0</v>
       </c>
       <c r="BA11" s="50">
-        <v>0.5833333333333334</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="BB11" s="49">
-        <v>43831.0</v>
+        <v>44958.0</v>
       </c>
       <c r="BC11" s="50">
-        <v>0.40625</v>
+        <v>0.6145833333333334</v>
       </c>
       <c r="BD11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BE11" s="52"/>
       <c r="BF11" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="BG11" s="52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BH11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BI11" s="19" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="BJ11" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BL11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="BN11" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="BO11" s="49">
-        <v>43831.0</v>
+        <v>44958.0</v>
       </c>
       <c r="BP11" s="50">
-        <v>0.375</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="BQ11" s="49">
-        <v>43831.0</v>
+        <v>44958.0</v>
       </c>
       <c r="BR11" s="50">
-        <v>0.5833333333333334</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="BS11" s="19">
         <v>1.0</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="BU11" s="19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="BV11" s="19" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="BW11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BX11" s="48" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="BY11" s="49">
-        <v>43831.0</v>
+        <v>44927.0</v>
       </c>
       <c r="BZ11" s="50">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="CA11" s="49">
         <v>43832.0</v>
@@ -9757,192 +9676,390 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="CJ11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CK11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CL11" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="CK11" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="CL11" s="19" t="s">
-        <v>325</v>
-      </c>
       <c r="CM11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CN11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CO11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CP11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CQ11" s="19" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="CR11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CS11" s="54"/>
       <c r="CT11" s="52"/>
       <c r="CU11" s="55" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="CV11" s="52"/>
       <c r="CW11" s="52"/>
       <c r="CX11" s="52"/>
       <c r="CY11" s="52"/>
       <c r="CZ11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="DA11" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DB11" s="47" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DC11" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="DD11" s="53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="56">
+        <v>1001.0</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="45">
+        <v>1001.0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="N12" s="47">
+        <v>1001.0</v>
+      </c>
+      <c r="O12" s="47">
+        <v>2001.0</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="U12" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="W12" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z12" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="56">
-        <v>1002.0</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
+      <c r="AA12" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="AB12" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="49">
+        <v>43831.0</v>
+      </c>
+      <c r="AE12" s="50">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="AF12" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH12" s="49">
+        <v>43831.0</v>
+      </c>
+      <c r="AI12" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="AJ12" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="AK12" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="AL12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AM12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AN12" s="19">
+        <v>2500.0</v>
+      </c>
+      <c r="AO12" s="19">
+        <v>2500.0</v>
+      </c>
+      <c r="AP12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AQ12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AR12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AS12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AT12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AU12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="AV12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="AW12" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX12" s="49">
+        <v>43831.0</v>
+      </c>
+      <c r="AY12" s="50">
+        <v>0.375</v>
+      </c>
+      <c r="AZ12" s="49">
+        <v>43831.0</v>
+      </c>
+      <c r="BA12" s="50">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="BB12" s="49">
+        <v>43831.0</v>
+      </c>
+      <c r="BC12" s="50">
+        <v>0.40625</v>
+      </c>
+      <c r="BD12" s="19" t="s">
+        <v>321</v>
+      </c>
       <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
-      <c r="BX12" s="52"/>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="52"/>
-      <c r="CA12" s="52"/>
-      <c r="CB12" s="52"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="52"/>
-      <c r="CF12" s="52"/>
-      <c r="CG12" s="52"/>
-      <c r="CH12" s="52"/>
-      <c r="CI12" s="52"/>
-      <c r="CJ12" s="52"/>
-      <c r="CK12" s="52"/>
-      <c r="CL12" s="52"/>
-      <c r="CM12" s="52"/>
-      <c r="CN12" s="52"/>
-      <c r="CO12" s="52"/>
-      <c r="CP12" s="52"/>
-      <c r="CQ12" s="52"/>
-      <c r="CR12" s="52"/>
-      <c r="CS12" s="52"/>
+      <c r="BF12" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="BG12" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="BH12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="BI12" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ12" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK12" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM12" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="BN12" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="BO12" s="49">
+        <v>43831.0</v>
+      </c>
+      <c r="BP12" s="50">
+        <v>0.375</v>
+      </c>
+      <c r="BQ12" s="49">
+        <v>43831.0</v>
+      </c>
+      <c r="BR12" s="50">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="BS12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BT12" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="BU12" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="BV12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BW12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX12" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="BY12" s="49">
+        <v>43831.0</v>
+      </c>
+      <c r="BZ12" s="50">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="CA12" s="49">
+        <v>43832.0</v>
+      </c>
+      <c r="CB12" s="50">
+        <v>0.375</v>
+      </c>
+      <c r="CC12" s="49">
+        <v>43832.0</v>
+      </c>
+      <c r="CD12" s="50">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="CE12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CF12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CG12" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="CH12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CI12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="CJ12" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="CK12" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="CL12" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="CM12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CN12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CO12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CP12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CQ12" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="CR12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="CS12" s="54"/>
       <c r="CT12" s="52"/>
-      <c r="CU12" s="52"/>
+      <c r="CU12" s="55" t="s">
+        <v>369</v>
+      </c>
       <c r="CV12" s="52"/>
       <c r="CW12" s="52"/>
       <c r="CX12" s="52"/>
       <c r="CY12" s="52"/>
-      <c r="CZ12" s="52"/>
-      <c r="DA12" s="52"/>
-      <c r="DB12" s="52"/>
-      <c r="DC12" s="52"/>
-      <c r="DD12" s="52"/>
+      <c r="CZ12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="DA12" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="DB12" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="DC12" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="DD12" s="53" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B13" s="56">
-        <v>1003.0</v>
+        <v>1002.0</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
@@ -10052,7 +10169,118 @@
       <c r="DD13" s="52"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" s="56">
+        <v>1003.0</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="52"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
+      <c r="BB14" s="52"/>
+      <c r="BC14" s="52"/>
+      <c r="BD14" s="52"/>
+      <c r="BE14" s="52"/>
+      <c r="BF14" s="52"/>
+      <c r="BG14" s="52"/>
+      <c r="BH14" s="52"/>
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="52"/>
+      <c r="BK14" s="52"/>
+      <c r="BL14" s="52"/>
+      <c r="BM14" s="52"/>
+      <c r="BN14" s="52"/>
+      <c r="BO14" s="52"/>
+      <c r="BP14" s="52"/>
+      <c r="BQ14" s="52"/>
+      <c r="BR14" s="52"/>
+      <c r="BS14" s="52"/>
+      <c r="BT14" s="52"/>
+      <c r="BU14" s="52"/>
+      <c r="BV14" s="52"/>
+      <c r="BW14" s="52"/>
+      <c r="BX14" s="52"/>
+      <c r="BY14" s="52"/>
+      <c r="BZ14" s="52"/>
+      <c r="CA14" s="52"/>
+      <c r="CB14" s="52"/>
+      <c r="CC14" s="52"/>
+      <c r="CD14" s="52"/>
+      <c r="CE14" s="52"/>
+      <c r="CF14" s="52"/>
+      <c r="CG14" s="52"/>
+      <c r="CH14" s="52"/>
+      <c r="CI14" s="52"/>
+      <c r="CJ14" s="52"/>
+      <c r="CK14" s="52"/>
+      <c r="CL14" s="52"/>
+      <c r="CM14" s="52"/>
+      <c r="CN14" s="52"/>
+      <c r="CO14" s="52"/>
+      <c r="CP14" s="52"/>
+      <c r="CQ14" s="52"/>
+      <c r="CR14" s="52"/>
+      <c r="CS14" s="52"/>
+      <c r="CT14" s="52"/>
+      <c r="CU14" s="52"/>
+      <c r="CV14" s="52"/>
+      <c r="CW14" s="52"/>
+      <c r="CX14" s="52"/>
+      <c r="CY14" s="52"/>
+      <c r="CZ14" s="52"/>
+      <c r="DA14" s="52"/>
+      <c r="DB14" s="52"/>
+      <c r="DC14" s="52"/>
+      <c r="DD14" s="52"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="57"/>
@@ -10678,7 +10906,9 @@
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="57"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="57"/>
+    </row>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
@@ -11458,6 +11688,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -11549,17 +11780,17 @@
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="63" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D5" s="62"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="64" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
@@ -13003,17 +13234,18 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="3" max="5" width="12.63"/>
+    <col customWidth="1" min="6" max="6" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -13066,7 +13298,7 @@
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="63" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
@@ -13103,31 +13335,42 @@
         <v>303</v>
       </c>
       <c r="B5" s="61"/>
-      <c r="C5" s="63" t="s">
-        <v>304</v>
-      </c>
+      <c r="C5" s="63"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="F5" s="63" t="s">
+        <v>399</v>
+      </c>
       <c r="G5" s="62"/>
-      <c r="H5" s="63" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="H5" s="63"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="57"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="57"/>
@@ -13768,7 +14011,9 @@
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="57"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="57"/>
+    </row>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -14548,6 +14793,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -14577,13 +14823,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="67" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -15597,6 +15843,235 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.25"/>
+    <col customWidth="1" min="2" max="2" width="19.5"/>
+    <col customWidth="1" min="3" max="3" width="62.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="72">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="72">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="74">
+        <v>-1.0</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="74">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="74">
+        <v>3.0</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="74">
+        <v>4.0</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="74">
+        <v>5.0</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="74">
+        <v>6.0</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="74">
+        <v>7.0</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -15617,7 +16092,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="38"/>
       <c r="B1" s="39" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -15664,13 +16139,13 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B5" s="40"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B6" s="43"/>
     </row>

--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="430">
   <si>
     <t>Date</t>
   </si>
@@ -1303,6 +1303,9 @@
     <t>ID_NUMEQU*EQU*ST_CODCOU</t>
   </si>
   <si>
+    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
+  </si>
+  <si>
     <t>ID_NUMCRI*CRI*ST_DES</t>
   </si>
   <si>
@@ -1312,7 +1315,10 @@
     <t>SEQUENCE</t>
   </si>
   <si>
-    <t>EMP_ID</t>
+    <t>BT_ID</t>
+  </si>
+  <si>
+    <t>BTDOC_ID</t>
   </si>
   <si>
     <t>INTERNALVALUE</t>
@@ -7132,7 +7138,7 @@
         <v>9</v>
       </c>
       <c r="S3" s="42" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>9</v>
@@ -7291,7 +7297,7 @@
         <v>9</v>
       </c>
       <c r="BT3" s="42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BU3" s="40" t="s">
         <v>9</v>
@@ -7372,7 +7378,7 @@
         <v>9</v>
       </c>
       <c r="CU3" s="42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="CV3" s="40" t="s">
         <v>9</v>
@@ -7404,17 +7410,17 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>9</v>
+        <v>302</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>303</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>9</v>
+      <c r="E4" s="42" t="s">
+        <v>303</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>9</v>
@@ -7440,9 +7446,11 @@
       <c r="M4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40" t="s">
-        <v>9</v>
+      <c r="N4" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>304</v>
       </c>
       <c r="P4" s="40" t="s">
         <v>9</v>
@@ -7453,9 +7461,7 @@
       <c r="R4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="40" t="s">
-        <v>302</v>
-      </c>
+      <c r="S4" s="40"/>
       <c r="T4" s="40" t="s">
         <v>9</v>
       </c>
@@ -7726,7 +7732,7 @@
     </row>
     <row r="5">
       <c r="A5" s="42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -7740,8 +7746,12 @@
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="N5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
@@ -7762,7 +7772,7 @@
       <c r="AG5" s="40"/>
       <c r="AH5" s="40"/>
       <c r="AI5" s="42" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AJ5" s="40"/>
       <c r="AK5" s="40"/>
@@ -7790,7 +7800,7 @@
       <c r="BG5" s="40"/>
       <c r="BH5" s="40"/>
       <c r="BI5" s="42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="BJ5" s="40"/>
       <c r="BK5" s="40"/>
@@ -7806,7 +7816,7 @@
       <c r="BU5" s="40"/>
       <c r="BV5" s="40"/>
       <c r="BW5" s="42" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="BX5" s="40"/>
       <c r="BY5" s="40"/>
@@ -7844,7 +7854,7 @@
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>9</v>
@@ -7868,7 +7878,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>9</v>
@@ -7919,7 +7929,7 @@
         <v>9</v>
       </c>
       <c r="Z6" s="40" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA6" s="40" t="s">
         <v>9</v>
@@ -7928,7 +7938,7 @@
         <v>9</v>
       </c>
       <c r="AC6" s="40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AD6" s="40" t="s">
         <v>9</v>
@@ -8027,7 +8037,7 @@
         <v>9</v>
       </c>
       <c r="BJ6" s="40" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BK6" s="40" t="s">
         <v>9</v>
@@ -8170,7 +8180,7 @@
     </row>
     <row r="7">
       <c r="A7" s="43" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>9</v>
@@ -8496,88 +8506,89 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="44" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f t="shared" ref="E8:E12" si="1">B8</f>
+        <v>$SEQUENCEID</v>
       </c>
       <c r="F8" s="19">
         <v>1.0</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I8" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="J8" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="K8" s="19" t="s">
+      <c r="M8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S8" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="U8" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="O8" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="S8" s="48" t="s">
+      <c r="V8" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="T8" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="U8" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="W8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z8" s="48" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA8" s="45">
         <v>1.0</v>
       </c>
       <c r="AB8" s="48" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AC8" s="45" t="s">
         <v>23</v>
@@ -8592,7 +8603,7 @@
         <v>1.0</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AH8" s="49">
         <v>43832.0</v>
@@ -8637,10 +8648,10 @@
         <v>1000.0</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AX8" s="49">
         <v>43832.0</v>
@@ -8661,35 +8672,35 @@
         <v>0.3645833333333333</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BE8" s="52"/>
       <c r="BF8" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BG8" s="52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BH8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BI8" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="BJ8" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BL8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BM8" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BN8" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BO8" s="49">
         <v>43832.0</v>
@@ -8707,19 +8718,19 @@
         <v>1.0</v>
       </c>
       <c r="BT8" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="BU8" s="19">
         <v>1.0</v>
       </c>
       <c r="BV8" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BW8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BX8" s="48" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="BY8" s="49">
         <v>43831.0</v>
@@ -8740,156 +8751,157 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="CL8" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CM8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CN8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CO8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CP8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CR8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CS8" s="54"/>
       <c r="CT8" s="52"/>
       <c r="CU8" s="55" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="CV8" s="52"/>
       <c r="CW8" s="52"/>
       <c r="CX8" s="52"/>
       <c r="CY8" s="52"/>
       <c r="CZ8" s="19" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="DA8" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DB8" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DC8" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="DD8" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="44" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>$SEQUENCEID</v>
       </c>
       <c r="F9" s="19">
         <v>1.0</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S9" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="U9" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="N9" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="S9" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="U9" s="48" t="s">
-        <v>340</v>
-      </c>
       <c r="V9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z9" s="48" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AA9" s="45">
         <v>1.0</v>
       </c>
       <c r="AB9" s="48" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AC9" s="45" t="s">
         <v>23</v>
@@ -8904,7 +8916,7 @@
         <v>2.0</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AH9" s="49">
         <v>44206.0</v>
@@ -8949,10 +8961,10 @@
         <v>2000.0</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AX9" s="49">
         <v>44206.0</v>
@@ -8973,35 +8985,35 @@
         <v>0.40625</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BE9" s="52"/>
       <c r="BF9" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BG9" s="52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BH9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BI9" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="BJ9" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BL9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BM9" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BN9" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BO9" s="49">
         <v>44206.0</v>
@@ -9019,19 +9031,19 @@
         <v>1.0</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="BU9" s="19">
         <v>2.0</v>
       </c>
       <c r="BV9" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BW9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BX9" s="48" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BY9" s="49">
         <v>44197.0</v>
@@ -9052,156 +9064,157 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CJ9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CK9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CL9" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CM9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CN9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CO9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CP9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CQ9" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CR9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CS9" s="54"/>
       <c r="CT9" s="52"/>
       <c r="CU9" s="55" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="CV9" s="52"/>
       <c r="CW9" s="52"/>
       <c r="CX9" s="52"/>
       <c r="CY9" s="52"/>
       <c r="CZ9" s="19" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="DA9" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DB9" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DC9" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="DD9" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="44" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="E10" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>$SEQUENCEID</v>
       </c>
       <c r="F10" s="19">
         <v>1.0</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K10" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S10" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="U10" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="S10" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="U10" s="48" t="s">
-        <v>356</v>
-      </c>
       <c r="V10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z10" s="48" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AA10" s="45">
         <v>1.0</v>
       </c>
       <c r="AB10" s="48" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AC10" s="45" t="s">
         <v>23</v>
@@ -9216,7 +9229,7 @@
         <v>3.0</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AH10" s="49">
         <v>44592.0</v>
@@ -9261,10 +9274,10 @@
         <v>3000.0</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AX10" s="49">
         <v>44592.0</v>
@@ -9285,35 +9298,35 @@
         <v>0.5729166666666666</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BE10" s="52"/>
       <c r="BF10" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BG10" s="52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BH10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BI10" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="BJ10" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BL10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BM10" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BN10" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BO10" s="49">
         <v>44592.0</v>
@@ -9331,19 +9344,19 @@
         <v>1.0</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="BU10" s="19">
         <v>3.0</v>
       </c>
       <c r="BV10" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BW10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BX10" s="48" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="BY10" s="49">
         <v>44562.0</v>
@@ -9364,111 +9377,112 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CG10" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CI10" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CJ10" s="19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="CL10" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CM10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CN10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CO10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CP10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CR10" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CS10" s="54"/>
       <c r="CT10" s="52"/>
       <c r="CU10" s="55" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="CV10" s="52"/>
       <c r="CW10" s="52"/>
       <c r="CX10" s="52"/>
       <c r="CY10" s="52"/>
       <c r="CZ10" s="19" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="DA10" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DB10" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DC10" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="DD10" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="44" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B11" s="56">
         <v>1000.0</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="45">
-        <v>1000.0</v>
+        <v>317</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="F11" s="19">
         <v>1.0</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N11" s="47">
         <v>1000.0</v>
@@ -9477,43 +9491,43 @@
         <v>2000.0</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S11" s="48" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="U11" s="48" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="W11" s="48" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z11" s="48" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AA11" s="45">
         <v>1.0</v>
       </c>
       <c r="AB11" s="48" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AC11" s="45" t="s">
         <v>23</v>
@@ -9528,7 +9542,7 @@
         <v>4.0</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AH11" s="49">
         <v>44958.0</v>
@@ -9573,10 +9587,10 @@
         <v>4000.0</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AX11" s="49">
         <v>44958.0</v>
@@ -9597,35 +9611,35 @@
         <v>0.6145833333333334</v>
       </c>
       <c r="BD11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BE11" s="52"/>
       <c r="BF11" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BG11" s="52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BH11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BI11" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="BJ11" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BL11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BN11" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BO11" s="49">
         <v>44958.0</v>
@@ -9643,19 +9657,19 @@
         <v>1.0</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="BU11" s="19">
         <v>4.0</v>
       </c>
       <c r="BV11" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BW11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BX11" s="48" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BY11" s="49">
         <v>44927.0</v>
@@ -9676,111 +9690,112 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CL11" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CM11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CN11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CO11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CP11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CQ11" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CR11" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CS11" s="54"/>
       <c r="CT11" s="52"/>
       <c r="CU11" s="55" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="CV11" s="52"/>
       <c r="CW11" s="52"/>
       <c r="CX11" s="52"/>
       <c r="CY11" s="52"/>
       <c r="CZ11" s="19" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="DA11" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DB11" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DC11" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="DD11" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B12" s="56">
         <v>1001.0</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E12" s="45">
-        <v>1001.0</v>
+        <v>317</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="1"/>
+        <v>1001</v>
       </c>
       <c r="F12" s="19">
         <v>1.0</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N12" s="47">
         <v>1001.0</v>
@@ -9789,43 +9804,43 @@
         <v>2001.0</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S12" s="48" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="U12" s="48" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="W12" s="48" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z12" s="48" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AA12" s="45">
         <v>1.0</v>
       </c>
       <c r="AB12" s="48" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AC12" s="45" t="s">
         <v>23</v>
@@ -9840,7 +9855,7 @@
         <v>5.0</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AH12" s="49">
         <v>43831.0</v>
@@ -9885,10 +9900,10 @@
         <v>5000.0</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AX12" s="49">
         <v>43831.0</v>
@@ -9909,35 +9924,35 @@
         <v>0.40625</v>
       </c>
       <c r="BD12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BE12" s="52"/>
       <c r="BF12" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BG12" s="52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BH12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BI12" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="BJ12" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BK12" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BL12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BM12" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BN12" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BO12" s="49">
         <v>43831.0</v>
@@ -9955,19 +9970,19 @@
         <v>1.0</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="BU12" s="19">
         <v>3.0</v>
       </c>
       <c r="BV12" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BW12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BX12" s="48" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="BY12" s="49">
         <v>43831.0</v>
@@ -9988,75 +10003,75 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CF12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CG12" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CI12" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CJ12" s="19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="CL12" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CM12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CN12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CO12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CP12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CQ12" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="CR12" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="CS12" s="54"/>
       <c r="CT12" s="52"/>
       <c r="CU12" s="55" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="CV12" s="52"/>
       <c r="CW12" s="52"/>
       <c r="CX12" s="52"/>
       <c r="CY12" s="52"/>
       <c r="CZ12" s="19" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="DA12" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DB12" s="47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DC12" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="DD12" s="53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B13" s="56">
         <v>1002.0</v>
@@ -10170,7 +10185,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B14" s="56">
         <v>1003.0</v>
@@ -11772,25 +11787,27 @@
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="61"/>
+        <v>302</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>304</v>
+      </c>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="63" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D5" s="62"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="64" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
@@ -13298,7 +13315,7 @@
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="63" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
@@ -13320,7 +13337,7 @@
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="62"/>
@@ -13332,37 +13349,37 @@
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="63"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
       <c r="F5" s="63" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G5" s="62"/>
       <c r="H5" s="63"/>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="64" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B7" s="65"/>
       <c r="C7" s="66"/>
@@ -14823,13 +14840,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="67" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -15856,211 +15873,211 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="69" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="71" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="72">
         <v>0.0</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="71" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B3" s="72">
         <v>1.0</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="71" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B4" s="72">
         <v>2.0</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B6" s="74">
         <v>-1.0</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B7" s="74">
         <v>0.0</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B8" s="74">
         <v>1.0</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B9" s="74">
         <v>2.0</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B10" s="74">
         <v>3.0</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B11" s="74">
         <v>4.0</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B12" s="74">
         <v>5.0</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B13" s="74">
         <v>6.0</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B14" s="74">
         <v>7.0</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="73" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="73" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -16092,7 +16109,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="38"/>
       <c r="B1" s="39" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -16133,19 +16150,19 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B4" s="40"/>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B5" s="40"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B6" s="43"/>
     </row>

--- a/TNR_JDD/JDD.TR.BT.xlsx
+++ b/TNR_JDD/JDD.TR.BT.xlsx
@@ -1650,10 +1650,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>VALEUR INTERNE</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>TEXTE IHM</t>
   </si>
   <si>
     <t>Immédiat</t>
@@ -1991,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2182,8 +2182,11 @@
     <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -15878,205 +15881,205 @@
       <c r="B1" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="71" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="73">
         <v>0.0</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="72" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="73">
         <v>1.0</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="73">
         <v>2.0</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="75">
         <v>-1.0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="75">
         <v>0.0</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="75">
         <v>1.0</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="75">
         <v>2.0</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="74" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="75">
         <v>3.0</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="75">
         <v>4.0</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="75">
         <v>5.0</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="74" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="75">
         <v>6.0</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="74" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="75">
         <v>7.0</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="74" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="72" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="73" t="s">
         <v>421</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="72" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="72" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="74" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="75" t="s">
         <v>427</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="74" t="s">
         <v>428</v>
       </c>
     </row>
